--- a/output/LUAD_statistics_all subtypes.xlsx
+++ b/output/LUAD_statistics_all subtypes.xlsx
@@ -63,51 +63,51 @@
     <t>7</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -225,36 +225,36 @@
     <t>Mutation KRAS</t>
   </si>
   <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
     <t>Pattern OR_KRAS</t>
   </si>
   <si>
-    <t>Amplification CDK4</t>
-  </si>
-  <si>
     <t>Mutation TP53</t>
   </si>
   <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
     <t>Pattern OR_CDK4_TP53</t>
   </si>
   <si>
+    <t>Pattern OR_EGFR_SMARCA4</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Mutation ARID1B</t>
+  </si>
+  <si>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
     <t>Mutation NF1</t>
   </si>
   <si>
-    <t>Mutation SMARCA4</t>
-  </si>
-  <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_SMARCA4</t>
-  </si>
-  <si>
-    <t>Mutation ARID1B</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -267,31 +267,31 @@
     <t>Amplification KRAS</t>
   </si>
   <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
     <t>Mutation STK11</t>
   </si>
   <si>
-    <t>Amplification MDM2</t>
-  </si>
-  <si>
     <t>Mutation RB1</t>
   </si>
   <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
     <t>Mutation NFE2L2</t>
   </si>
   <si>
+    <t>Mutation ROS1</t>
+  </si>
+  <si>
     <t>Amplification MET</t>
   </si>
   <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
     <t>Mutation CDKN2A</t>
   </si>
   <si>
     <t>Mutation RET</t>
-  </si>
-  <si>
-    <t>Mutation ROS1</t>
   </si>
   <si>
     <t>Amplification CCNE1</t>
@@ -646,7 +646,7 @@
         <v>0.0591966173361522</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="4">
@@ -704,19 +704,19 @@
         <v>84</v>
       </c>
       <c r="D5" t="n">
-        <v>158.0</v>
+        <v>29.0</v>
       </c>
       <c r="E5" t="n">
-        <v>84.0</v>
+        <v>26.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0177894166197971</v>
       </c>
       <c r="G5" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H5" t="n">
-        <v>1.11208450607907E-5</v>
+        <v>3.80945122355267E-7</v>
       </c>
       <c r="I5" t="n">
         <v>80.0</v>
@@ -725,16 +725,16 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.17801268498942918</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0013371152897117859</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M5" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="6">
@@ -748,37 +748,37 @@
         <v>85</v>
       </c>
       <c r="D6" t="n">
-        <v>29.0</v>
+        <v>158.0</v>
       </c>
       <c r="E6" t="n">
-        <v>26.0</v>
+        <v>84.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0177894166197971</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G6" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H6" t="n">
-        <v>3.80945122355267E-7</v>
+        <v>1.11208450607907E-5</v>
       </c>
       <c r="I6" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.17758985200845667</v>
       </c>
       <c r="L6" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0551797040169133</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N6" t="n">
-        <v>6.68557644855895E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -816,13 +816,13 @@
         <v>0.06553911205073996</v>
       </c>
       <c r="L7" t="n">
-        <v>6.542051911182396E-18</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M7" t="n">
         <v>0.06553911205074</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="8">
@@ -833,22 +833,22 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" t="n">
-        <v>265.0</v>
+        <v>46.0</v>
       </c>
       <c r="E8" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G8" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H8" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>0.00699258708471991</v>
       </c>
       <c r="I8" t="n">
         <v>40.0</v>
@@ -857,16 +857,16 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N8" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -877,22 +877,22 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
-        <v>64.0</v>
+        <v>265.0</v>
       </c>
       <c r="E9" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0103051123549064</v>
+        <v>1.77721953788421E-6</v>
       </c>
       <c r="I9" t="n">
         <v>40.0</v>
@@ -901,13 +901,13 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -918,25 +918,25 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D10" t="n">
-        <v>158.0</v>
+        <v>265.0</v>
       </c>
       <c r="E10" t="n">
-        <v>46.0</v>
+        <v>34.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G10" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00131454955057744</v>
+        <v>8.27584277446678E-5</v>
       </c>
       <c r="I10" t="n">
         <v>40.0</v>
@@ -945,13 +945,13 @@
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -968,19 +968,19 @@
         <v>87</v>
       </c>
       <c r="D11" t="n">
-        <v>48.0</v>
+        <v>120.0</v>
       </c>
       <c r="E11" t="n">
-        <v>15.0</v>
+        <v>82.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G11" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00161509241969472</v>
+        <v>4.12608987825272E-4</v>
       </c>
       <c r="I11" t="n">
         <v>40.0</v>
@@ -989,13 +989,13 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -1009,22 +1009,22 @@
         <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D12" t="n">
-        <v>93.0</v>
+        <v>48.0</v>
       </c>
       <c r="E12" t="n">
-        <v>84.0</v>
+        <v>15.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.200982679178368</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G12" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H12" t="n">
-        <v>3.59155834889592E-4</v>
+        <v>0.00161509241969472</v>
       </c>
       <c r="I12" t="n">
         <v>40.0</v>
@@ -1033,13 +1033,13 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.17801268498942918</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0013371152897117859</v>
+        <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -1050,40 +1050,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D13" t="n">
-        <v>265.0</v>
+        <v>25.0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.414406187123225</v>
       </c>
       <c r="G13" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H13" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>0.00877923124276454</v>
       </c>
       <c r="I13" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -1094,40 +1094,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" t="n">
-        <v>103.0</v>
+        <v>93.0</v>
       </c>
       <c r="E14" t="n">
-        <v>15.0</v>
+        <v>84.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.200982679178368</v>
       </c>
       <c r="G14" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00167276266869532</v>
+        <v>3.59155834889592E-4</v>
       </c>
       <c r="I14" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.17758985200845667</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -1138,40 +1138,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
       <c r="D15" t="n">
-        <v>46.0</v>
+        <v>64.0</v>
       </c>
       <c r="E15" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00699258708471991</v>
+        <v>0.0103051123549064</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.040169133192389</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M15" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -1182,40 +1182,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D16" t="n">
-        <v>120.0</v>
+        <v>158.0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.0</v>
+        <v>46.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G16" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H16" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>0.00131454955057744</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.173361522198731</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -1226,16 +1226,16 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
       </c>
       <c r="D17" t="n">
-        <v>250.0</v>
+        <v>103.0</v>
       </c>
       <c r="E17" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.00396825396825397</v>
@@ -1244,7 +1244,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00148405904181779</v>
+        <v>0.00167276266869532</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -1253,13 +1253,13 @@
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L17" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -1270,16 +1270,16 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
       </c>
       <c r="D18" t="n">
-        <v>265.0</v>
+        <v>250.0</v>
       </c>
       <c r="E18" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.00396825396825397</v>
@@ -1288,7 +1288,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H18" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>0.00148405904181779</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -1297,13 +1297,13 @@
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -1314,25 +1314,25 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
         <v>92</v>
       </c>
       <c r="D19" t="n">
-        <v>25.0</v>
+        <v>265.0</v>
       </c>
       <c r="E19" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.414406187123225</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G19" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00877923124276454</v>
+        <v>9.13202144083936E-5</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -1341,13 +1341,13 @@
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N19" t="n">
         <v>2.31296463463574E-18</v>
@@ -1405,7 +1405,7 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1432,7 +1432,7 @@
         <v>0.0613107822410148</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M21" t="e">
         <v>#NUM!</v>
@@ -1757,7 +1757,7 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1916,7 +1916,7 @@
         <v>0.06553911205073996</v>
       </c>
       <c r="L32" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M32" t="e">
         <v>#NUM!</v>
@@ -1933,7 +1933,7 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -2109,7 +2109,7 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2285,7 +2285,7 @@
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -2441,10 +2441,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4885835095137421</v>
+        <v>0.48710359408033826</v>
       </c>
       <c r="L44" t="n">
-        <v>0.011382945174485744</v>
+        <v>0.009359807027982536</v>
       </c>
       <c r="M44" t="e">
         <v>#NUM!</v>
@@ -2505,7 +2505,7 @@
         <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -2593,7 +2593,7 @@
         <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -3074,15 +3074,15 @@
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.122198731501057</v>
+        <v>0.126427061310782</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00674474199521094</v>
+        <v>0.00579416625541775</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -3135,19 +3135,19 @@
         <v>84</v>
       </c>
       <c r="D5" t="n">
-        <v>158.0</v>
+        <v>29.0</v>
       </c>
       <c r="E5" t="n">
-        <v>84.0</v>
+        <v>26.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0177894166197971</v>
       </c>
       <c r="G5" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H5" t="n">
-        <v>1.11208450607907E-5</v>
+        <v>3.80945122355267E-7</v>
       </c>
       <c r="I5" t="n">
         <v>80.0</v>
@@ -3156,21 +3156,21 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.17801268498942918</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0013371152897117859</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M5" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0558139534883721</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.00267423057942358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -3179,34 +3179,34 @@
         <v>85</v>
       </c>
       <c r="D6" t="n">
-        <v>29.0</v>
+        <v>158.0</v>
       </c>
       <c r="E6" t="n">
-        <v>26.0</v>
+        <v>84.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0177894166197971</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G6" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H6" t="n">
-        <v>3.80945122355267E-7</v>
+        <v>1.11208450607907E-5</v>
       </c>
       <c r="I6" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.17758985200845667</v>
       </c>
       <c r="L6" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -3247,39 +3247,39 @@
         <v>0.06553911205073996</v>
       </c>
       <c r="L7" t="n">
-        <v>6.542051911182396E-18</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M7" t="n">
         <v>0.06553911205074</v>
       </c>
       <c r="N7" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" t="n">
-        <v>265.0</v>
+        <v>46.0</v>
       </c>
       <c r="E8" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G8" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H8" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>0.00699258708471991</v>
       </c>
       <c r="I8" t="n">
         <v>40.0</v>
@@ -3288,42 +3288,42 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0600422832980973</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00267423057942358</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
-        <v>64.0</v>
+        <v>265.0</v>
       </c>
       <c r="E9" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0103051123549064</v>
+        <v>1.77721953788421E-6</v>
       </c>
       <c r="I9" t="n">
         <v>40.0</v>
@@ -3332,42 +3332,42 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D10" t="n">
-        <v>158.0</v>
+        <v>265.0</v>
       </c>
       <c r="E10" t="n">
-        <v>46.0</v>
+        <v>34.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G10" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00131454955057744</v>
+        <v>8.27584277446678E-5</v>
       </c>
       <c r="I10" t="n">
         <v>40.0</v>
@@ -3376,13 +3376,13 @@
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -3399,19 +3399,19 @@
         <v>87</v>
       </c>
       <c r="D11" t="n">
-        <v>48.0</v>
+        <v>120.0</v>
       </c>
       <c r="E11" t="n">
-        <v>15.0</v>
+        <v>82.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G11" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00161509241969472</v>
+        <v>4.12608987825272E-4</v>
       </c>
       <c r="I11" t="n">
         <v>40.0</v>
@@ -3420,13 +3420,13 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -3434,28 +3434,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D12" t="n">
-        <v>93.0</v>
+        <v>48.0</v>
       </c>
       <c r="E12" t="n">
-        <v>84.0</v>
+        <v>15.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.200982679178368</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G12" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H12" t="n">
-        <v>3.59155834889592E-4</v>
+        <v>0.00161509241969472</v>
       </c>
       <c r="I12" t="n">
         <v>40.0</v>
@@ -3464,13 +3464,13 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.17801268498942918</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0013371152897117859</v>
+        <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -3478,87 +3478,87 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D13" t="n">
-        <v>265.0</v>
+        <v>25.0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.414406187123225</v>
       </c>
       <c r="G13" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H13" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>0.00877923124276454</v>
       </c>
       <c r="I13" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0551797040169133</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0</v>
+        <v>6.68557644855895E-4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" t="n">
-        <v>103.0</v>
+        <v>93.0</v>
       </c>
       <c r="E14" t="n">
-        <v>15.0</v>
+        <v>84.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.200982679178368</v>
       </c>
       <c r="G14" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00167276266869532</v>
+        <v>3.59155834889592E-4</v>
       </c>
       <c r="I14" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.17758985200845667</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -3566,43 +3566,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
       <c r="D15" t="n">
-        <v>46.0</v>
+        <v>64.0</v>
       </c>
       <c r="E15" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00699258708471991</v>
+        <v>0.0103051123549064</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.040169133192389</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M15" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -3610,43 +3610,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D16" t="n">
-        <v>48.0</v>
+        <v>158.0</v>
       </c>
       <c r="E16" t="n">
-        <v>19.0</v>
+        <v>46.0</v>
       </c>
       <c r="F16" t="n">
         <v>0.0058336561716597</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H16" t="n">
-        <v>2.75013925583083E-4</v>
+        <v>0.00131454955057744</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.040169133192389</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -3654,28 +3654,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D17" t="n">
-        <v>250.0</v>
+        <v>48.0</v>
       </c>
       <c r="E17" t="n">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
       <c r="F17" t="n">
+        <v>0.0058336561716597</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.0059626167965088</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.00396825396825397</v>
-      </c>
       <c r="H17" t="n">
-        <v>0.00580706674183575</v>
+        <v>2.75013925583083E-4</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -3684,33 +3684,33 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D18" t="n">
-        <v>266.0</v>
+        <v>250.0</v>
       </c>
       <c r="E18" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.0059626167965088</v>
@@ -3719,7 +3719,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H18" t="n">
-        <v>2.7663019432251E-5</v>
+        <v>0.00580706674183575</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -3728,13 +3728,13 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -3742,19 +3742,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" t="n">
-        <v>250.0</v>
+        <v>266.0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="F19" t="n">
         <v>0.0059626167965088</v>
@@ -3763,7 +3763,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0203099057522167</v>
+        <v>2.7663019432251E-5</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -3772,33 +3772,33 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D20" t="n">
-        <v>27.0</v>
+        <v>250.0</v>
       </c>
       <c r="E20" t="n">
-        <v>15.0</v>
+        <v>34.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0059626167965088</v>
@@ -3807,7 +3807,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0356623108130311</v>
+        <v>0.0203099057522167</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -3816,13 +3816,13 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
@@ -3830,28 +3830,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D21" t="n">
-        <v>250.0</v>
+        <v>27.0</v>
       </c>
       <c r="E21" t="n">
         <v>15.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H21" t="n">
-        <v>3.12027396593513E-4</v>
+        <v>0.0356623108130311</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -3874,28 +3874,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D22" t="n">
-        <v>93.0</v>
+        <v>250.0</v>
       </c>
       <c r="E22" t="n">
-        <v>59.0</v>
+        <v>15.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G22" t="n">
         <v>0.0059626167965088</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0204179464513697</v>
+        <v>3.12027396593513E-4</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -3904,13 +3904,13 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.12473572938689217</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.124735729386892</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -3918,43 +3918,43 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D23" t="n">
-        <v>158.0</v>
+        <v>103.0</v>
       </c>
       <c r="E23" t="n">
-        <v>59.0</v>
+        <v>15.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G23" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00334798701112857</v>
+        <v>0.00167276266869532</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.12473572938689217</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.124735729386892</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -3962,43 +3962,43 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D24" t="n">
-        <v>120.0</v>
+        <v>93.0</v>
       </c>
       <c r="E24" t="n">
-        <v>82.0</v>
+        <v>59.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="H24" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>0.0204179464513697</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.12473572938689217</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.173361522198731</v>
+        <v>0.124735729386892</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -4006,28 +4006,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" t="n">
-        <v>64.0</v>
+        <v>158.0</v>
       </c>
       <c r="E25" t="n">
-        <v>37.0</v>
+        <v>59.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G25" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00333892782400472</v>
+        <v>0.00334798701112857</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -4036,13 +4036,13 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.12473572938689217</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0782241014799154</v>
+        <v>0.124735729386892</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -4050,16 +4050,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
         <v>95</v>
       </c>
       <c r="D26" t="n">
-        <v>250.0</v>
+        <v>64.0</v>
       </c>
       <c r="E26" t="n">
         <v>37.0</v>
@@ -4068,10 +4068,10 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00793650793650794</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0641712118646901</v>
+        <v>0.00333892782400472</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -4094,28 +4094,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
         <v>95</v>
       </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
       <c r="D27" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E27" t="n">
         <v>37.0</v>
       </c>
-      <c r="E27" t="n">
-        <v>28.0</v>
-      </c>
       <c r="F27" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.00793650793650794</v>
       </c>
       <c r="H27" t="n">
-        <v>0.015920859802431</v>
+        <v>0.0641712118646901</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -4124,42 +4124,42 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0782241014799154</v>
       </c>
       <c r="N27" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
         <v>96</v>
       </c>
       <c r="D28" t="n">
-        <v>46.0</v>
+        <v>37.0</v>
       </c>
       <c r="E28" t="n">
         <v>28.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="G28" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0142728080658903</v>
+        <v>0.015920859802431</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -4182,28 +4182,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>96</v>
       </c>
       <c r="D29" t="n">
-        <v>35.0</v>
+        <v>46.0</v>
       </c>
       <c r="E29" t="n">
         <v>28.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0468463097466241</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G29" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0417860943528127</v>
+        <v>0.0142728080658903</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -4221,33 +4221,33 @@
         <v>0.0591966173361522</v>
       </c>
       <c r="N29" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
         <v>96</v>
       </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
       <c r="D30" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E30" t="n">
         <v>28.0</v>
       </c>
-      <c r="E30" t="n">
-        <v>25.0</v>
-      </c>
       <c r="F30" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.0468463097466241</v>
       </c>
       <c r="G30" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00528885616238524</v>
+        <v>0.0417860943528127</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -4256,42 +4256,42 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
       <c r="E31" t="n">
         <v>25.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00130554100709877</v>
+        <v>0.00528885616238524</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -4303,39 +4303,39 @@
         <v>0.052854122621564484</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M31" t="n">
         <v>0.0528541226215645</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
         <v>77</v>
       </c>
       <c r="D32" t="n">
-        <v>84.0</v>
+        <v>31.0</v>
       </c>
       <c r="E32" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
       <c r="F32" t="n">
         <v>0.0059626167965088</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00153994324064719</v>
+        <v>0.00130554100709877</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -4344,13 +4344,13 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -4358,28 +4358,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D33" t="n">
-        <v>31.0</v>
+        <v>84.0</v>
       </c>
       <c r="E33" t="n">
-        <v>25.0</v>
+        <v>46.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0172268185197356</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00352256830938948</v>
+        <v>0.00153994324064719</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -4388,16 +4388,16 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L33" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N33" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -4405,37 +4405,37 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34" t="n">
-        <v>250.0</v>
+        <v>31.0</v>
       </c>
       <c r="E34" t="n">
         <v>25.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0172268185197356</v>
       </c>
       <c r="G34" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00148405904181779</v>
+        <v>0.00352256830938948</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K34" t="n">
         <v>0.052854122621564484</v>
       </c>
       <c r="L34" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M34" t="n">
         <v>0.0528541226215645</v>
@@ -4446,43 +4446,43 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D35" t="n">
-        <v>93.0</v>
+        <v>250.0</v>
       </c>
       <c r="E35" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G35" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0572545435376393</v>
+        <v>0.00148405904181779</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L35" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -4490,28 +4490,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D36" t="n">
-        <v>250.0</v>
+        <v>93.0</v>
       </c>
       <c r="E36" t="n">
-        <v>64.0</v>
+        <v>31.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G36" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0500405705476867</v>
+        <v>0.0572545435376393</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -4520,13 +4520,13 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.13530655391120508</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.135306553911205</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -4534,28 +4534,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D37" t="n">
-        <v>37.0</v>
+        <v>250.0</v>
       </c>
       <c r="E37" t="n">
-        <v>27.0</v>
+        <v>64.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00798534817689006</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G37" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00573068158794917</v>
+        <v>0.0500405705476867</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -4564,13 +4564,13 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.13530655391120508</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.135306553911205</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -4578,28 +4578,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
         <v>102</v>
       </c>
       <c r="D38" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="E38" t="n">
         <v>27.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00793650793650794</v>
+        <v>0.00798534817689006</v>
       </c>
       <c r="G38" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00496140462033587</v>
+        <v>0.00573068158794917</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -4622,28 +4622,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D39" t="n">
-        <v>59.0</v>
+        <v>41.0</v>
       </c>
       <c r="E39" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00793650793650794</v>
       </c>
       <c r="G39" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00872783618701037</v>
+        <v>0.00496140462033587</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -4652,30 +4652,30 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L39" t="n">
-        <v>6.542051911182396E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N39" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
         <v>86</v>
       </c>
       <c r="D40" t="n">
-        <v>78.0</v>
+        <v>59.0</v>
       </c>
       <c r="E40" t="n">
         <v>31.0</v>
@@ -4687,7 +4687,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0865916560787768</v>
+        <v>0.00872783618701037</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -4699,39 +4699,39 @@
         <v>0.06553911205073996</v>
       </c>
       <c r="L40" t="n">
-        <v>6.542051911182396E-18</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M40" t="n">
         <v>0.06553911205074</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0</v>
+        <v>6.5420519111824E-18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D41" t="n">
-        <v>222.0</v>
+        <v>78.0</v>
       </c>
       <c r="E41" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G41" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H41" t="n">
-        <v>0.00201437246540173</v>
+        <v>0.0865916560787768</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -4740,42 +4740,42 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0782241014799154</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0</v>
+        <v>6.5420519111824E-18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D42" t="n">
-        <v>46.0</v>
+        <v>222.0</v>
       </c>
       <c r="E42" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G42" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H42" t="n">
-        <v>0.145038385111565</v>
+        <v>0.00201437246540173</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -4784,13 +4784,13 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0782241014799154</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -4798,16 +4798,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D43" t="n">
-        <v>93.0</v>
+        <v>46.0</v>
       </c>
       <c r="E43" t="n">
         <v>23.0</v>
@@ -4816,10 +4816,10 @@
         <v>0.0059626167965088</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0914870429913643</v>
+        <v>0.145038385111565</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -4831,7 +4831,7 @@
         <v>0.048625792811839326</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M43" t="n">
         <v>0.0486257928118393</v>
@@ -4842,40 +4842,40 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D44" t="n">
-        <v>265.0</v>
+        <v>93.0</v>
       </c>
       <c r="E44" t="n">
         <v>23.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H44" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>0.0914870429913643</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K44" t="n">
         <v>0.048625792811839326</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M44" t="n">
         <v>0.0486257928118393</v>
@@ -4886,43 +4886,43 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
         <v>92</v>
       </c>
       <c r="D45" t="n">
-        <v>26.0</v>
+        <v>265.0</v>
       </c>
       <c r="E45" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0166693416357932</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G45" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0165947985726984</v>
+        <v>9.13202144083936E-5</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N45" t="n">
         <v>2.31296463463574E-18</v>
@@ -4930,34 +4930,34 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D46" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="E46" t="n">
         <v>26.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.414406187123225</v>
+        <v>0.0166693416357932</v>
       </c>
       <c r="G46" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H46" t="n">
-        <v>0.00877923124276454</v>
+        <v>0.0165947985726984</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K46" t="n">
         <v>0.05496828752642706</v>
@@ -4966,10 +4966,10 @@
         <v>0.0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0562367864693446</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N46" t="n">
-        <v>0.00401134586913537</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="47">
@@ -4980,7 +4980,7 @@
         <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D47" t="n">
         <v>250.0</v>
@@ -5065,10 +5065,10 @@
         <v>66</v>
       </c>
       <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
         <v>76</v>
-      </c>
-      <c r="C49" t="s">
-        <v>75</v>
       </c>
       <c r="D49" t="n">
         <v>93.0</v>
@@ -5112,7 +5112,7 @@
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D50" t="n">
         <v>250.0</v>
@@ -5145,7 +5145,7 @@
         <v>0.101479915433404</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="51">
@@ -5244,7 +5244,7 @@
         <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D53" t="n">
         <v>250.0</v>
@@ -5285,7 +5285,7 @@
         <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
         <v>117</v>
@@ -5332,7 +5332,7 @@
         <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -5359,7 +5359,7 @@
         <v>0.0613107822410148</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M55" t="e">
         <v>#NUM!</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
@@ -5546,13 +5546,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
         <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
         <v>80</v>
@@ -5816,7 +5816,7 @@
         <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D66" t="e">
         <v>#NUM!</v>
@@ -5884,10 +5884,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K67" t="n">
-        <v>0.4885835095137421</v>
+        <v>0.48710359408033826</v>
       </c>
       <c r="L67" t="n">
-        <v>0.011382945174485744</v>
+        <v>0.009359807027982536</v>
       </c>
       <c r="M67" t="e">
         <v>#NUM!</v>
@@ -5992,7 +5992,7 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D70" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_all subtypes.xlsx
+++ b/output/LUAD_statistics_all subtypes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="153">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -54,114 +54,114 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
@@ -213,262 +213,265 @@
     <t>53</t>
   </si>
   <si>
+    <t>Mutation EGFR</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
+    <t>Mutation TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS</t>
+  </si>
+  <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
+    <t>Mutation ROS1</t>
+  </si>
+  <si>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Amplification KRAS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Amplification EGFR</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
+    <t>Mutation ARID1B</t>
+  </si>
+  <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Mutation NFE2L2</t>
+  </si>
+  <si>
+    <t>Mutation CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation RET</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
+  </si>
+  <si>
+    <t>Amplification CCNE1</t>
+  </si>
+  <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation ALK</t>
+  </si>
+  <si>
+    <t>Mutation ARID1A</t>
+  </si>
+  <si>
+    <t>Mutation ARID2</t>
+  </si>
+  <si>
+    <t>Mutation BRAF</t>
+  </si>
+  <si>
+    <t>Mutation ERBB2</t>
+  </si>
+  <si>
+    <t>Mutation MET</t>
+  </si>
+  <si>
+    <t>Mutation MTOR</t>
+  </si>
+  <si>
+    <t>Mutation NF1</t>
+  </si>
+  <si>
+    <t>Mutation PIK3CA</t>
+  </si>
+  <si>
+    <t>Mutation RBM10</t>
+  </si>
+  <si>
+    <t>Mutation SETD2</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_KRAS</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_SMARCA4</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_STK11</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS_EGFR_NF1_BRAF_MET</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_MDM2_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_STK11_EGFR_ERBB2</t>
+  </si>
+  <si>
+    <t>Pattern OR_STK11_TP53</t>
+  </si>
+  <si>
+    <t>Pattern XOR_KRAS_EGFR</t>
+  </si>
+  <si>
+    <t>Pattern XOR_MET</t>
+  </si>
+  <si>
+    <t>capri_aic.SELECTS</t>
+  </si>
+  <si>
+    <t>capri_aic.SELECTED</t>
+  </si>
+  <si>
+    <t>capri_aic.OBS.SELECTS</t>
+  </si>
+  <si>
+    <t>capri_aic.OBS.SELECTED</t>
+  </si>
+  <si>
+    <t>capri_aic.TEMPORAL.PRIORITY</t>
+  </si>
+  <si>
+    <t>capri_aic.PROBABILITY.RAISING</t>
+  </si>
+  <si>
+    <t>capri_aic.HYPERGEOMETRIC</t>
+  </si>
+  <si>
+    <t>capri_aic.NONPAR.BOOT</t>
+  </si>
+  <si>
+    <t>capri_aic.STAT.BOOT</t>
+  </si>
+  <si>
+    <t>capri_aic.MEAN.PREDERR</t>
+  </si>
+  <si>
+    <t>capri_aic.SD.PREDERR</t>
+  </si>
+  <si>
+    <t>capri_aic.MEAN.POSTERR</t>
+  </si>
+  <si>
+    <t>capri_aic.SD.POSTERR</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>54</t>
   </si>
   <si>
-    <t>Pattern OR_CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation EGFR</t>
-  </si>
-  <si>
-    <t>Mutation KRAS</t>
-  </si>
-  <si>
-    <t>Amplification CDK4</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS</t>
-  </si>
-  <si>
-    <t>Mutation TP53</t>
-  </si>
-  <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDK4_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_SMARCA4</t>
-  </si>
-  <si>
-    <t>Mutation SMARCA4</t>
-  </si>
-  <si>
-    <t>Mutation ARID1B</t>
-  </si>
-  <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Mutation NF1</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Amplification CCND1</t>
-  </si>
-  <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
-    <t>Amplification KRAS</t>
-  </si>
-  <si>
-    <t>Amplification MDM2</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Mutation RB1</t>
-  </si>
-  <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation NFE2L2</t>
-  </si>
-  <si>
-    <t>Mutation ROS1</t>
-  </si>
-  <si>
-    <t>Amplification MET</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation RET</t>
-  </si>
-  <si>
-    <t>Amplification CCNE1</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
-    <t>Mutation ALK</t>
-  </si>
-  <si>
-    <t>Mutation ARID1A</t>
-  </si>
-  <si>
-    <t>Mutation ARID2</t>
-  </si>
-  <si>
-    <t>Mutation BRAF</t>
-  </si>
-  <si>
-    <t>Mutation ERBB2</t>
-  </si>
-  <si>
-    <t>Mutation MET</t>
-  </si>
-  <si>
-    <t>Mutation MTOR</t>
-  </si>
-  <si>
-    <t>Mutation PIK3CA</t>
-  </si>
-  <si>
-    <t>Mutation RBM10</t>
-  </si>
-  <si>
-    <t>Mutation SETD2</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_STK11</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS_EGFR_NF1_BRAF_MET</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_MDM2_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_STK11_EGFR_ERBB2</t>
-  </si>
-  <si>
-    <t>Pattern OR_STK11_TP53</t>
-  </si>
-  <si>
-    <t>Pattern XOR_KRAS_EGFR</t>
-  </si>
-  <si>
-    <t>Pattern XOR_MET</t>
-  </si>
-  <si>
-    <t>capri_aic.SELECTS</t>
-  </si>
-  <si>
-    <t>capri_aic.SELECTED</t>
-  </si>
-  <si>
-    <t>capri_aic.OBS.SELECTS</t>
-  </si>
-  <si>
-    <t>capri_aic.OBS.SELECTED</t>
-  </si>
-  <si>
-    <t>capri_aic.TEMPORAL.PRIORITY</t>
-  </si>
-  <si>
-    <t>capri_aic.PROBABILITY.RAISING</t>
-  </si>
-  <si>
-    <t>capri_aic.HYPERGEOMETRIC</t>
-  </si>
-  <si>
-    <t>capri_aic.NONPAR.BOOT</t>
-  </si>
-  <si>
-    <t>capri_aic.STAT.BOOT</t>
-  </si>
-  <si>
-    <t>capri_aic.MEAN.PREDERR</t>
-  </si>
-  <si>
-    <t>capri_aic.SD.PREDERR</t>
-  </si>
-  <si>
-    <t>capri_aic.MEAN.POSTERR</t>
-  </si>
-  <si>
-    <t>capri_aic.SD.POSTERR</t>
-  </si>
-  <si>
-    <t>57</t>
+    <t>55</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
-    <t>55</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t>62</t>
   </si>
   <si>
-    <t>63</t>
+    <t>65</t>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>75</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
   </si>
 </sst>
 </file>
@@ -566,25 +569,25 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>103.0</v>
+        <v>65.0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.27750413602892E-34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.2789807586468E-34</v>
       </c>
       <c r="H2" t="n">
-        <v>8.46735787535546E-6</v>
+        <v>2.34043725186344E-8</v>
       </c>
       <c r="I2" t="n">
         <v>100.0</v>
@@ -593,13 +596,13 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.040169133192389</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -610,28 +613,28 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
-        <v>65.0</v>
+        <v>265.0</v>
       </c>
       <c r="E3" t="n">
         <v>28.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.21331384976196E-34</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.26964773028488E-34</v>
       </c>
       <c r="H3" t="n">
-        <v>3.24651120035433E-13</v>
+        <v>1.3099503583219E-6</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
@@ -646,7 +649,7 @@
         <v>0.0591966173361522</v>
       </c>
       <c r="N3" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -654,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D4" t="n">
         <v>141.0</v>
@@ -666,16 +669,16 @@
         <v>34.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.20716898087554E-34</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.40220830353988E-34</v>
       </c>
       <c r="H4" t="n">
-        <v>8.88220599278587E-4</v>
+        <v>0.00439810392437882</v>
       </c>
       <c r="I4" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
@@ -698,43 +701,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>29.0</v>
+        <v>250.0</v>
       </c>
       <c r="E5" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0177894166197971</v>
+        <v>1.1996320229215E-34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.27934105177767E-34</v>
       </c>
       <c r="H5" t="n">
-        <v>3.80945122355267E-7</v>
+        <v>9.31487623968685E-6</v>
       </c>
       <c r="I5" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L5" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N5" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="6">
@@ -742,10 +745,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D6" t="n">
         <v>158.0</v>
@@ -754,25 +757,25 @@
         <v>84.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.2352705485436E-34</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.35901809531459E-34</v>
       </c>
       <c r="H6" t="n">
-        <v>1.11208450607907E-5</v>
+        <v>5.83787118574287E-5</v>
       </c>
       <c r="I6" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.17758985200845667</v>
+        <v>0.17906976744186048</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>0.004679903513991259</v>
       </c>
       <c r="M6" t="n">
         <v>0.177589852008457</v>
@@ -786,43 +789,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D7" t="n">
-        <v>250.0</v>
+        <v>29.0</v>
       </c>
       <c r="E7" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0059626167965088</v>
+        <v>3.11513097132402E-4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.27710882602122E-34</v>
       </c>
       <c r="H7" t="n">
-        <v>1.07101678627571E-5</v>
+        <v>1.34895703589137E-9</v>
       </c>
       <c r="I7" t="n">
-        <v>60.0</v>
+        <v>99.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L7" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0551797040169133</v>
       </c>
       <c r="N7" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>6.68557644855895E-4</v>
       </c>
     </row>
     <row r="8">
@@ -830,40 +833,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D8" t="n">
-        <v>46.0</v>
+        <v>26.0</v>
       </c>
       <c r="E8" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.230463819865231</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.50685764247491E-34</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00699258708471991</v>
+        <v>1.22924557080361E-4</v>
       </c>
       <c r="I8" t="n">
-        <v>40.0</v>
+        <v>98.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.040169133192389</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -874,40 +877,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" t="n">
-        <v>265.0</v>
+        <v>93.0</v>
       </c>
       <c r="E9" t="n">
-        <v>28.0</v>
+        <v>84.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0059626167965088</v>
+        <v>5.92610852923476E-11</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.40076465372556E-34</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>9.54957167667665E-5</v>
       </c>
       <c r="I9" t="n">
-        <v>40.0</v>
+        <v>85.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.17906976744186048</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0</v>
+        <v>0.004679903513991259</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -921,37 +924,37 @@
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" t="n">
-        <v>265.0</v>
+        <v>103.0</v>
       </c>
       <c r="E10" t="n">
-        <v>34.0</v>
+        <v>19.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.18175642458777E-34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.31910172907252E-34</v>
       </c>
       <c r="H10" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>2.87748894071806E-4</v>
       </c>
       <c r="I10" t="n">
-        <v>40.0</v>
+        <v>17.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -965,37 +968,37 @@
         <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" t="n">
-        <v>120.0</v>
+        <v>46.0</v>
       </c>
       <c r="E11" t="n">
-        <v>82.0</v>
+        <v>19.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.17192315497953E-34</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.35695424691269E-34</v>
       </c>
       <c r="H11" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>0.00462043917431882</v>
       </c>
       <c r="I11" t="n">
-        <v>40.0</v>
+        <v>9.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.173361522198731</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -1006,40 +1009,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D12" t="n">
-        <v>48.0</v>
+        <v>250.0</v>
       </c>
       <c r="E12" t="n">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.20274987211075E-34</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.72701342298077E-34</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00161509241969472</v>
+        <v>9.10299739159604E-4</v>
       </c>
       <c r="I12" t="n">
-        <v>40.0</v>
+        <v>9.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -1050,40 +1053,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>25.0</v>
+        <v>158.0</v>
       </c>
       <c r="E13" t="n">
-        <v>26.0</v>
+        <v>46.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.414406187123225</v>
+        <v>1.22894814189563E-34</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.44329763931428E-34</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00877923124276454</v>
+        <v>5.9054705516599E-4</v>
       </c>
       <c r="I13" t="n">
-        <v>40.0</v>
+        <v>3.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -1094,40 +1097,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
         <v>85</v>
       </c>
       <c r="D14" t="n">
-        <v>93.0</v>
+        <v>48.0</v>
       </c>
       <c r="E14" t="n">
-        <v>84.0</v>
+        <v>15.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.200982679178368</v>
+        <v>1.15751855688404E-34</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00396825396825397</v>
+        <v>5.13633444044432E-34</v>
       </c>
       <c r="H14" t="n">
-        <v>3.59155834889592E-4</v>
+        <v>0.00221679363656914</v>
       </c>
       <c r="I14" t="n">
-        <v>40.0</v>
+        <v>3.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.17758985200845667</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -1138,40 +1141,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D15" t="n">
-        <v>64.0</v>
+        <v>34.0</v>
       </c>
       <c r="E15" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00396825396825397</v>
+        <v>6.68835988379306E-10</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0158730158730159</v>
+        <v>1.67420369046413E-34</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0103051123549064</v>
+        <v>8.18797892426578E-5</v>
       </c>
       <c r="I15" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="L15" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -1182,40 +1185,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D16" t="n">
-        <v>158.0</v>
+        <v>250.0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.19990282760418E-34</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.51825316129327E-33</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00131454955057744</v>
+        <v>0.00244603283957377</v>
       </c>
       <c r="I16" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -1229,37 +1232,37 @@
         <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D17" t="n">
-        <v>103.0</v>
+        <v>265.0</v>
       </c>
       <c r="E17" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.20785024514573E-34</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.27970144370964E-34</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00167276266869532</v>
+        <v>0.00144379662133346</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" t="n">
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -1270,25 +1273,25 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D18" t="n">
-        <v>250.0</v>
+        <v>103.0</v>
       </c>
       <c r="E18" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.14193063028248E-34</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00396825396825397</v>
+        <v>4.84099107273283E-34</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00148405904181779</v>
+        <v>0.00398467763664485</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -1297,13 +1300,13 @@
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -1317,22 +1320,22 @@
         <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D19" t="n">
-        <v>265.0</v>
+        <v>103.0</v>
       </c>
       <c r="E19" t="n">
-        <v>23.0</v>
+        <v>48.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.22403716286637E-34</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.33073820932236E-34</v>
       </c>
       <c r="H19" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>0.00131533878106072</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -1341,16 +1344,16 @@
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.1014799154334038</v>
       </c>
       <c r="L19" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.101479915433404</v>
       </c>
       <c r="N19" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -1358,10 +1361,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1388,7 +1391,7 @@
         <v>0.05708245243128964</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -1402,10 +1405,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1429,10 +1432,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0613107822410148</v>
+        <v>0.12473572938689217</v>
       </c>
       <c r="L21" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M21" t="e">
         <v>#NUM!</v>
@@ -1446,10 +1449,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1473,7 +1476,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K22" t="n">
-        <v>0.12473572938689217</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -1490,10 +1493,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -1534,10 +1537,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -1564,7 +1567,7 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M24" t="e">
         <v>#NUM!</v>
@@ -1578,10 +1581,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1608,7 +1611,7 @@
         <v>0.06765327695560254</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -1622,10 +1625,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -1666,10 +1669,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1710,10 +1713,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1754,10 +1757,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1798,10 +1801,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1842,10 +1845,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -1886,10 +1889,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1930,10 +1933,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -1974,10 +1977,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -2018,10 +2021,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -2062,10 +2065,10 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -2106,10 +2109,10 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2133,7 +2136,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1014799154334038</v>
+        <v>0.4714587737843552</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
@@ -2150,10 +2153,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -2177,7 +2180,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4714587737843552</v>
+        <v>0.35517970401691334</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
@@ -2194,10 +2197,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -2221,7 +2224,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K39" t="n">
-        <v>0.35517970401691334</v>
+        <v>0.3192389006342495</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
@@ -2238,10 +2241,10 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -2265,7 +2268,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3192389006342495</v>
+        <v>0.4397463002114165</v>
       </c>
       <c r="L40" t="n">
         <v>0.0</v>
@@ -2282,7 +2285,7 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
@@ -2309,7 +2312,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4397463002114165</v>
+        <v>0.21775898520084566</v>
       </c>
       <c r="L41" t="n">
         <v>0.0</v>
@@ -2326,10 +2329,10 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -2353,7 +2356,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K42" t="n">
-        <v>0.21775898520084566</v>
+        <v>0.1649048625792812</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
@@ -2370,10 +2373,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" t="e">
         <v>#NUM!</v>
@@ -2397,10 +2400,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1649048625792812</v>
+        <v>0.4989429175475687</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0</v>
+        <v>0.01774443736717997</v>
       </c>
       <c r="M43" t="e">
         <v>#NUM!</v>
@@ -2414,10 +2417,10 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" t="e">
         <v>#NUM!</v>
@@ -2441,10 +2444,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K44" t="n">
-        <v>0.48710359408033826</v>
+        <v>0.4143763213530655</v>
       </c>
       <c r="L44" t="n">
-        <v>0.009359807027982536</v>
+        <v>0.0</v>
       </c>
       <c r="M44" t="e">
         <v>#NUM!</v>
@@ -2458,10 +2461,10 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45" t="e">
         <v>#NUM!</v>
@@ -2485,7 +2488,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4143763213530655</v>
+        <v>0.2536997885835095</v>
       </c>
       <c r="L45" t="n">
         <v>0.0</v>
@@ -2502,10 +2505,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -2529,7 +2532,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2536997885835095</v>
+        <v>0.33403805496828753</v>
       </c>
       <c r="L46" t="n">
         <v>0.0</v>
@@ -2546,10 +2549,10 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D47" t="e">
         <v>#NUM!</v>
@@ -2590,10 +2593,10 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -2617,7 +2620,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K48" t="n">
-        <v>0.33403805496828753</v>
+        <v>0.3192389006342495</v>
       </c>
       <c r="L48" t="n">
         <v>0.0</v>
@@ -2634,7 +2637,7 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
         <v>111</v>
@@ -2661,7 +2664,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3192389006342495</v>
+        <v>0.26849894291754756</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
@@ -2678,7 +2681,7 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
         <v>112</v>
@@ -2705,7 +2708,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K50" t="n">
-        <v>0.26849894291754756</v>
+        <v>0.4376321353065539</v>
       </c>
       <c r="L50" t="n">
         <v>0.0</v>
@@ -2722,7 +2725,7 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
         <v>113</v>
@@ -2749,7 +2752,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4376321353065539</v>
+        <v>0.3678646934460888</v>
       </c>
       <c r="L51" t="n">
         <v>0.0</v>
@@ -2766,7 +2769,7 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
         <v>114</v>
@@ -2793,7 +2796,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K52" t="n">
-        <v>0.3678646934460888</v>
+        <v>0.35517970401691334</v>
       </c>
       <c r="L52" t="n">
         <v>0.0</v>
@@ -2810,7 +2813,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
         <v>115</v>
@@ -2837,7 +2840,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K53" t="n">
-        <v>0.35517970401691334</v>
+        <v>0.4693446088794926</v>
       </c>
       <c r="L53" t="n">
         <v>0.0</v>
@@ -2854,7 +2857,7 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
         <v>116</v>
@@ -2881,59 +2884,15 @@
         <v>#NUM!</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4693446088794926</v>
+        <v>0.07610993657505286</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M54" t="e">
         <v>#NUM!</v>
       </c>
       <c r="N54" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.07610993657505286</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N55" t="e">
         <v>#NUM!</v>
       </c>
     </row>
@@ -2953,69 +2912,69 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>122</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>123</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>124</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>126</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>127</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>129</v>
-      </c>
-      <c r="N1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>103.0</v>
+        <v>65.0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.27750413602892E-34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.2789807586468E-34</v>
       </c>
       <c r="H2" t="n">
-        <v>8.46735787535546E-6</v>
+        <v>2.34043725186344E-8</v>
       </c>
       <c r="I2" t="n">
         <v>100.0</v>
@@ -3024,45 +2983,45 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.040169133192389</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.040169133192389</v>
+        <v>0.121141649048626</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>0.00446261880168782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
-        <v>65.0</v>
+        <v>265.0</v>
       </c>
       <c r="E3" t="n">
         <v>28.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.21331384976196E-34</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.26964773028488E-34</v>
       </c>
       <c r="H3" t="n">
-        <v>3.24651120035433E-13</v>
+        <v>1.3099503583219E-6</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
@@ -3074,21 +3033,21 @@
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.126427061310782</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00579416625541775</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D4" t="n">
         <v>141.0</v>
@@ -3097,16 +3056,16 @@
         <v>34.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.20716898087554E-34</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.40220830353988E-34</v>
       </c>
       <c r="H4" t="n">
-        <v>8.88220599278587E-4</v>
+        <v>0.00439810392437882</v>
       </c>
       <c r="I4" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
@@ -3126,57 +3085,57 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>29.0</v>
+        <v>250.0</v>
       </c>
       <c r="E5" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0177894166197971</v>
+        <v>1.1996320229215E-34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.27934105177767E-34</v>
       </c>
       <c r="H5" t="n">
-        <v>3.80945122355267E-7</v>
+        <v>9.31487623968685E-6</v>
       </c>
       <c r="I5" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L5" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0558139534883721</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00267423057942358</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D6" t="n">
         <v>158.0</v>
@@ -3185,25 +3144,25 @@
         <v>84.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.2352705485436E-34</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.35901809531459E-34</v>
       </c>
       <c r="H6" t="n">
-        <v>1.11208450607907E-5</v>
+        <v>5.83787118574287E-5</v>
       </c>
       <c r="I6" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.17758985200845667</v>
+        <v>0.17906976744186048</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>0.004679903513991259</v>
       </c>
       <c r="M6" t="n">
         <v>0.177589852008457</v>
@@ -3214,175 +3173,175 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D7" t="n">
-        <v>250.0</v>
+        <v>29.0</v>
       </c>
       <c r="E7" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0059626167965088</v>
+        <v>3.11513097132402E-4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.27710882602122E-34</v>
       </c>
       <c r="H7" t="n">
-        <v>1.07101678627571E-5</v>
+        <v>1.34895703589137E-9</v>
       </c>
       <c r="I7" t="n">
-        <v>60.0</v>
+        <v>99.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L7" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0551797040169133</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0</v>
+        <v>6.68557644855895E-4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D8" t="n">
-        <v>46.0</v>
+        <v>26.0</v>
       </c>
       <c r="E8" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.230463819865231</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.50685764247491E-34</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00699258708471991</v>
+        <v>1.22924557080361E-4</v>
       </c>
       <c r="I8" t="n">
-        <v>40.0</v>
+        <v>98.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.040169133192389</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" t="n">
-        <v>265.0</v>
+        <v>93.0</v>
       </c>
       <c r="E9" t="n">
-        <v>28.0</v>
+        <v>84.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0059626167965088</v>
+        <v>5.92610852923476E-11</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.40076465372556E-34</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>9.54957167667665E-5</v>
       </c>
       <c r="I9" t="n">
-        <v>40.0</v>
+        <v>85.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.17906976744186048</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0</v>
+        <v>0.004679903513991259</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N9" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" t="n">
-        <v>265.0</v>
+        <v>103.0</v>
       </c>
       <c r="E10" t="n">
-        <v>34.0</v>
+        <v>19.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.18175642458777E-34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.31910172907252E-34</v>
       </c>
       <c r="H10" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>2.87748894071806E-4</v>
       </c>
       <c r="I10" t="n">
-        <v>40.0</v>
+        <v>17.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -3390,43 +3349,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" t="n">
-        <v>120.0</v>
+        <v>46.0</v>
       </c>
       <c r="E11" t="n">
-        <v>82.0</v>
+        <v>19.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.17192315497953E-34</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.35695424691269E-34</v>
       </c>
       <c r="H11" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>0.00462043917431882</v>
       </c>
       <c r="I11" t="n">
-        <v>40.0</v>
+        <v>9.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.173361522198731</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -3434,43 +3393,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D12" t="n">
-        <v>48.0</v>
+        <v>250.0</v>
       </c>
       <c r="E12" t="n">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.20274987211075E-34</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.72701342298077E-34</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00161509241969472</v>
+        <v>9.10299739159604E-4</v>
       </c>
       <c r="I12" t="n">
-        <v>40.0</v>
+        <v>9.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -3478,87 +3437,87 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>25.0</v>
+        <v>158.0</v>
       </c>
       <c r="E13" t="n">
-        <v>26.0</v>
+        <v>46.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.414406187123225</v>
+        <v>1.22894814189563E-34</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.44329763931428E-34</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00877923124276454</v>
+        <v>5.9054705516599E-4</v>
       </c>
       <c r="I13" t="n">
-        <v>40.0</v>
+        <v>3.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0551797040169133</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N13" t="n">
-        <v>6.68557644855895E-4</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
         <v>85</v>
       </c>
       <c r="D14" t="n">
-        <v>93.0</v>
+        <v>48.0</v>
       </c>
       <c r="E14" t="n">
-        <v>84.0</v>
+        <v>15.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.200982679178368</v>
+        <v>1.15751855688404E-34</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00396825396825397</v>
+        <v>5.13633444044432E-34</v>
       </c>
       <c r="H14" t="n">
-        <v>3.59155834889592E-4</v>
+        <v>0.00221679363656914</v>
       </c>
       <c r="I14" t="n">
-        <v>40.0</v>
+        <v>3.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.17758985200845667</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -3566,43 +3525,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D15" t="n">
-        <v>64.0</v>
+        <v>34.0</v>
       </c>
       <c r="E15" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00396825396825397</v>
+        <v>6.68835988379306E-10</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0158730158730159</v>
+        <v>1.67420369046413E-34</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0103051123549064</v>
+        <v>8.18797892426578E-5</v>
       </c>
       <c r="I15" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="L15" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -3610,43 +3569,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D16" t="n">
-        <v>158.0</v>
+        <v>250.0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.19990282760418E-34</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.51825316129327E-33</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00131454955057744</v>
+        <v>0.00244603283957377</v>
       </c>
       <c r="I16" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -3654,43 +3613,43 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D17" t="n">
-        <v>48.0</v>
+        <v>265.0</v>
       </c>
       <c r="E17" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.20785024514573E-34</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.27970144370964E-34</v>
       </c>
       <c r="H17" t="n">
-        <v>2.75013925583083E-4</v>
+        <v>0.00144379662133346</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.040169133192389</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -3698,28 +3657,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D18" t="n">
-        <v>250.0</v>
+        <v>48.0</v>
       </c>
       <c r="E18" t="n">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.16980753950271E-34</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00396825396825397</v>
+        <v>5.18891868709783E-32</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00580706674183575</v>
+        <v>0.00642721531968004</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -3728,13 +3687,13 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -3742,28 +3701,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D19" t="n">
-        <v>266.0</v>
+        <v>250.0</v>
       </c>
       <c r="E19" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.2214854975644E-34</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00396825396825397</v>
+        <v>9.45491043224714E-34</v>
       </c>
       <c r="H19" t="n">
-        <v>2.7663019432251E-5</v>
+        <v>0.00875366705199949</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -3772,13 +3731,13 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N19" t="n">
         <v>2.31296463463574E-18</v>
@@ -3786,28 +3745,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D20" t="n">
-        <v>250.0</v>
+        <v>266.0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.21667218042997E-34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.27984562815263E-34</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0203099057522167</v>
+        <v>1.74454012812646E-5</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -3816,42 +3775,42 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0</v>
+        <v>3.2710259555912E-18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D21" t="n">
-        <v>27.0</v>
+        <v>250.0</v>
       </c>
       <c r="E21" t="n">
-        <v>15.0</v>
+        <v>34.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.21990193792916E-34</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00396825396825397</v>
+        <v>3.15872820267576E-31</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0356623108130311</v>
+        <v>0.0380486317429577</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -3860,13 +3819,13 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
@@ -3874,28 +3833,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" t="n">
-        <v>250.0</v>
+        <v>27.0</v>
       </c>
       <c r="E22" t="n">
         <v>15.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.21200184302059E-30</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0059626167965088</v>
+        <v>9.45566349797827E-32</v>
       </c>
       <c r="H22" t="n">
-        <v>3.12027396593513E-4</v>
+        <v>0.00499481011308575</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -3918,34 +3877,34 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" t="n">
-        <v>103.0</v>
+        <v>250.0</v>
       </c>
       <c r="E23" t="n">
         <v>15.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.14917939631038E-34</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00396825396825397</v>
+        <v>8.37367308997004E-34</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00167276266869532</v>
+        <v>0.0106961395903676</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K23" t="n">
         <v>0.03171247357293869</v>
@@ -3962,43 +3921,43 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D24" t="n">
-        <v>93.0</v>
+        <v>103.0</v>
       </c>
       <c r="E24" t="n">
-        <v>59.0</v>
+        <v>15.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.14193063028248E-34</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0059626167965088</v>
+        <v>4.84099107273283E-34</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0204179464513697</v>
+        <v>0.00398467763664485</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.12473572938689217</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.124735729386892</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -4006,28 +3965,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D25" t="n">
-        <v>158.0</v>
+        <v>93.0</v>
       </c>
       <c r="E25" t="n">
         <v>59.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0059626167965088</v>
+        <v>2.56669768177853E-34</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00396825396825397</v>
+        <v>6.22810203136227E-33</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00334798701112857</v>
+        <v>0.010219817700162</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -4050,28 +4009,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D26" t="n">
-        <v>64.0</v>
+        <v>158.0</v>
       </c>
       <c r="E26" t="n">
-        <v>37.0</v>
+        <v>59.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.23116780642132E-34</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00396825396825397</v>
+        <v>3.43842467161196E-34</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00333892782400472</v>
+        <v>0.00548554537266833</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -4080,13 +4039,13 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.12473572938689217</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0782241014799154</v>
+        <v>0.124735729386892</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -4094,28 +4053,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D27" t="n">
-        <v>250.0</v>
+        <v>64.0</v>
       </c>
       <c r="E27" t="n">
         <v>37.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00396825396825397</v>
+        <v>7.83432948699516E-34</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00793650793650794</v>
+        <v>7.67502774908572E-34</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0641712118646901</v>
+        <v>0.00723407933578799</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -4138,28 +4097,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D28" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E28" t="n">
         <v>37.0</v>
       </c>
-      <c r="E28" t="n">
-        <v>28.0</v>
-      </c>
       <c r="F28" t="n">
-        <v>0.0158730158730159</v>
+        <v>1.22756283034756E-34</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.09865154650512E-30</v>
       </c>
       <c r="H28" t="n">
-        <v>0.015920859802431</v>
+        <v>0.0321461849788848</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -4168,13 +4127,13 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0782241014799154</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -4182,13 +4141,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D29" t="n">
         <v>46.0</v>
@@ -4197,13 +4156,13 @@
         <v>28.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0059626167965088</v>
+        <v>3.25205585187007E-33</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.75066984020806E-32</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0142728080658903</v>
+        <v>0.0126685742084983</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -4215,7 +4174,7 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M29" t="n">
         <v>0.0591966173361522</v>
@@ -4226,13 +4185,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" t="n">
         <v>35.0</v>
@@ -4241,10 +4200,10 @@
         <v>28.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0468463097466241</v>
+        <v>6.15975412036137E-13</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00396825396825397</v>
+        <v>3.09839392327555E-29</v>
       </c>
       <c r="H30" t="n">
         <v>0.0417860943528127</v>
@@ -4259,39 +4218,39 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M30" t="n">
         <v>0.0591966173361522</v>
       </c>
       <c r="N30" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D31" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="E31" t="n">
         <v>25.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0277777777777778</v>
+        <v>1.80123894902044E-15</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00396825396825397</v>
+        <v>5.02913344401318E-32</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00528885616238524</v>
+        <v>5.43984140533416E-4</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -4303,39 +4262,39 @@
         <v>0.052854122621564484</v>
       </c>
       <c r="L31" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M31" t="n">
         <v>0.0528541226215645</v>
       </c>
       <c r="N31" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D32" t="n">
-        <v>31.0</v>
+        <v>64.0</v>
       </c>
       <c r="E32" t="n">
         <v>25.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.16927921684181E-34</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0158730158730159</v>
+        <v>9.44765379625515E-34</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00130554100709877</v>
+        <v>0.00303356901418375</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -4347,7 +4306,7 @@
         <v>0.052854122621564484</v>
       </c>
       <c r="L32" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M32" t="n">
         <v>0.0528541226215645</v>
@@ -4358,28 +4317,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D33" t="n">
-        <v>84.0</v>
+        <v>120.0</v>
       </c>
       <c r="E33" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.1818231380091E-34</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00396825396825397</v>
+        <v>3.14898369775345E-30</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00153994324064719</v>
+        <v>0.0309840525412039</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -4388,13 +4347,13 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
@@ -4402,28 +4361,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D34" t="n">
-        <v>31.0</v>
+        <v>84.0</v>
       </c>
       <c r="E34" t="n">
-        <v>25.0</v>
+        <v>46.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0172268185197356</v>
+        <v>1.22231249679506E-34</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0059626167965088</v>
+        <v>2.10050760876494E-33</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00352256830938948</v>
+        <v>0.00267754579974763</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
@@ -4432,48 +4391,48 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N34" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D35" t="n">
-        <v>250.0</v>
+        <v>28.0</v>
       </c>
       <c r="E35" t="n">
         <v>25.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.00347441638969293</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00396825396825397</v>
+        <v>7.59560619227989E-25</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00148405904181779</v>
+        <v>0.013847059440947</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K35" t="n">
         <v>0.052854122621564484</v>
@@ -4490,28 +4449,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D36" t="n">
-        <v>93.0</v>
+        <v>31.0</v>
       </c>
       <c r="E36" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0058336561716597</v>
+        <v>4.68106792426314E-11</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00396825396825397</v>
+        <v>3.51366609307787E-30</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0572545435376393</v>
+        <v>0.00436627886971947</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -4520,13 +4479,13 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -4534,28 +4493,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D37" t="n">
-        <v>250.0</v>
+        <v>29.0</v>
       </c>
       <c r="E37" t="n">
-        <v>64.0</v>
+        <v>21.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.29963677676796E-18</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00396825396825397</v>
+        <v>4.6677071804976E-29</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0500405705476867</v>
+        <v>0.0329558875782948</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -4564,13 +4523,13 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.13530655391120508</v>
+        <v>0.04439746300211417</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.135306553911205</v>
+        <v>0.0443974630021142</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -4578,28 +4537,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D38" t="n">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="E38" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00798534817689006</v>
+        <v>0.403276919271152</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00396825396825397</v>
+        <v>5.12934693136123E-25</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00573068158794917</v>
+        <v>0.0434095862598749</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -4608,42 +4567,42 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N38" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>8.01234452659818E-18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" t="n">
-        <v>41.0</v>
+        <v>250.0</v>
       </c>
       <c r="E39" t="n">
-        <v>27.0</v>
+        <v>64.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00793650793650794</v>
+        <v>1.23833888137938E-34</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.08697809290721E-25</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00496140462033587</v>
+        <v>0.0627225375520152</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -4652,13 +4611,13 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.13530655391120508</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.135306553911205</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -4666,28 +4625,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" t="n">
-        <v>59.0</v>
+        <v>41.0</v>
       </c>
       <c r="E40" t="n">
-        <v>31.0</v>
+        <v>15.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.14976382693386E-34</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00396825396825397</v>
+        <v>4.54421973181054E-6</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00872783618701037</v>
+        <v>0.37925589560784</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -4696,42 +4655,42 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L40" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N40" t="n">
-        <v>6.5420519111824E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D41" t="n">
-        <v>78.0</v>
+        <v>37.0</v>
       </c>
       <c r="E41" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0059626167965088</v>
+        <v>6.54960402503012E-24</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00396825396825397</v>
+        <v>6.37732532044627E-27</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0865916560787768</v>
+        <v>0.0151343083289218</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -4740,42 +4699,42 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L41" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N41" t="n">
-        <v>6.5420519111824E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D42" t="n">
-        <v>222.0</v>
+        <v>41.0</v>
       </c>
       <c r="E42" t="n">
-        <v>37.0</v>
+        <v>27.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.25502416082116E-30</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.54351413513868E-31</v>
       </c>
       <c r="H42" t="n">
-        <v>0.00201437246540173</v>
+        <v>0.0218323284200946</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -4784,13 +4743,13 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0782241014799154</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -4798,28 +4757,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D43" t="n">
-        <v>46.0</v>
+        <v>59.0</v>
       </c>
       <c r="E43" t="n">
-        <v>23.0</v>
+        <v>31.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.18429411365679E-34</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.02462154049138E-24</v>
       </c>
       <c r="H43" t="n">
-        <v>0.145038385111565</v>
+        <v>0.0653778046739091</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -4828,13 +4787,13 @@
         <v>0.0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L43" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -4842,28 +4801,28 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D44" t="n">
-        <v>93.0</v>
+        <v>78.0</v>
       </c>
       <c r="E44" t="n">
-        <v>23.0</v>
+        <v>31.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.18489592183298E-34</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0158730158730159</v>
+        <v>6.06467770620295E-31</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0914870429913643</v>
+        <v>0.0151411619500439</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
@@ -4872,13 +4831,13 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L44" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -4886,72 +4845,72 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D45" t="n">
-        <v>265.0</v>
+        <v>222.0</v>
       </c>
       <c r="E45" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.22403716286637E-34</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00396825396825397</v>
+        <v>5.58392767022052E-32</v>
       </c>
       <c r="H45" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>0.0367718902166031</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L45" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0782241014799154</v>
       </c>
       <c r="N45" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" t="n">
-        <v>26.0</v>
+        <v>46.0</v>
       </c>
       <c r="E46" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0166693416357932</v>
+        <v>1.30356106857447E-34</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.10181783119718E-27</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0165947985726984</v>
+        <v>0.0615559278427358</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
@@ -4960,42 +4919,42 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L46" t="n">
         <v>0.0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N46" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D47" t="n">
-        <v>250.0</v>
+        <v>93.0</v>
       </c>
       <c r="E47" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00557971264145738</v>
+        <v>1.20533143525127E-34</v>
       </c>
       <c r="G47" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.66100894091331E-20</v>
       </c>
       <c r="H47" t="n">
-        <v>6.16668310928288E-4</v>
+        <v>0.0608947640117497</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
@@ -5004,13 +4963,13 @@
         <v>0.0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L47" t="n">
         <v>0.0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -5018,28 +4977,28 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D48" t="n">
-        <v>41.0</v>
+        <v>26.0</v>
       </c>
       <c r="E48" t="n">
-        <v>35.0</v>
+        <v>26.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.299643165183856</v>
+        <v>0.0843843123534145</v>
       </c>
       <c r="G48" t="n">
-        <v>0.00396825396825397</v>
+        <v>8.28510201196554E-29</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00968077529339387</v>
+        <v>0.0411367908588224</v>
       </c>
       <c r="I48" t="n">
         <v>0.0</v>
@@ -5048,13 +5007,13 @@
         <v>0.0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.07399577167019028</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L48" t="n">
         <v>0.0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0739957716701903</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N48" t="n">
         <v>0.0</v>
@@ -5062,28 +5021,28 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D49" t="n">
-        <v>93.0</v>
+        <v>37.0</v>
       </c>
       <c r="E49" t="n">
-        <v>48.0</v>
+        <v>26.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.01401153655006E-25</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.72550704607847E-32</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01807073606392</v>
+        <v>0.00203460871628718</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
@@ -5092,13 +5051,13 @@
         <v>0.0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1014799154334038</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.101479915433404</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N49" t="n">
         <v>0.0</v>
@@ -5106,28 +5065,28 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D50" t="n">
-        <v>250.0</v>
+        <v>41.0</v>
       </c>
       <c r="E50" t="n">
-        <v>48.0</v>
+        <v>35.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0059626167965088</v>
+        <v>2.89718131170771E-13</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.39523961514486E-28</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0055462271686999</v>
+        <v>0.00532917435465734</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
@@ -5136,42 +5095,42 @@
         <v>0.0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1014799154334038</v>
+        <v>0.07399577167019028</v>
       </c>
       <c r="L50" t="n">
         <v>0.0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.101479915433404</v>
+        <v>0.0739957716701903</v>
       </c>
       <c r="N50" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D51" t="n">
-        <v>250.0</v>
+        <v>93.0</v>
       </c>
       <c r="E51" t="n">
-        <v>103.0</v>
+        <v>48.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.26473732547424E-34</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.8588266883493E-29</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0424915803314463</v>
+        <v>0.0367059590370031</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
@@ -5180,13 +5139,13 @@
         <v>0.0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.21775898520084566</v>
+        <v>0.1014799154334038</v>
       </c>
       <c r="L51" t="n">
         <v>0.0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.217758985200846</v>
+        <v>0.101479915433404</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
@@ -5194,43 +5153,43 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D52" t="n">
-        <v>250.0</v>
+        <v>103.0</v>
       </c>
       <c r="E52" t="n">
-        <v>78.0</v>
+        <v>48.0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.22403716286637E-34</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.33073820932236E-34</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0673405159954021</v>
+        <v>0.00131533878106072</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1649048625792812</v>
+        <v>0.1014799154334038</v>
       </c>
       <c r="L52" t="n">
         <v>0.0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.164904862579281</v>
+        <v>0.101479915433404</v>
       </c>
       <c r="N52" t="n">
         <v>0.0</v>
@@ -5238,28 +5197,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" t="n">
         <v>250.0</v>
       </c>
       <c r="E53" t="n">
-        <v>120.0</v>
+        <v>103.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.24435751455179E-34</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.18684328280531E-26</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00665908854938229</v>
+        <v>0.0728620325397625</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -5268,13 +5227,13 @@
         <v>0.0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2536997885835095</v>
+        <v>0.21775898520084566</v>
       </c>
       <c r="L53" t="n">
         <v>0.0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.25369978858351</v>
+        <v>0.217758985200846</v>
       </c>
       <c r="N53" t="n">
         <v>0.0</v>
@@ -5282,28 +5241,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D54" t="n">
-        <v>82.0</v>
+        <v>250.0</v>
       </c>
       <c r="E54" t="n">
-        <v>36.0</v>
+        <v>78.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.23687352542874E-34</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.26969641640727E-27</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0265719303468058</v>
+        <v>0.059238408256816</v>
       </c>
       <c r="I54" t="n">
         <v>0.0</v>
@@ -5312,13 +5271,13 @@
         <v>0.0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.07610993657505286</v>
+        <v>0.1649048625792812</v>
       </c>
       <c r="L54" t="n">
         <v>0.0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0761099365750529</v>
+        <v>0.164904862579281</v>
       </c>
       <c r="N54" t="n">
         <v>0.0</v>
@@ -5326,101 +5285,101 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J55" t="e">
-        <v>#NUM!</v>
+        <v>108</v>
+      </c>
+      <c r="D55" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.25160335975265E-34</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4.01643821011843E-33</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.00719422942487453</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0613107822410148</v>
+        <v>0.2536997885835095</v>
       </c>
       <c r="L55" t="n">
-        <v>2.3129646346357427E-18</v>
-      </c>
-      <c r="M55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N55" t="e">
-        <v>#NUM!</v>
+        <v>0.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.25369978858351</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J56" t="e">
-        <v>#NUM!</v>
+        <v>116</v>
+      </c>
+      <c r="D56" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.18938541639752E-34</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.53741229995149E-24</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0729593268421829</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.06765327695560254</v>
+        <v>0.07610993657505286</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N56" t="e">
-        <v>#NUM!</v>
+        <v>4.625929269271485E-18</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0761099365750529</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D57" t="e">
         <v>#NUM!</v>
@@ -5444,7 +5403,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.08668076109936575</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L57" t="n">
         <v>0.0</v>
@@ -5458,13 +5417,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -5488,10 +5447,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K58" t="n">
-        <v>0.13742071881606766</v>
+        <v>0.06765327695560254</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M58" t="e">
         <v>#NUM!</v>
@@ -5502,13 +5461,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D59" t="e">
         <v>#NUM!</v>
@@ -5532,7 +5491,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K59" t="n">
-        <v>0.042283298097251586</v>
+        <v>0.08668076109936575</v>
       </c>
       <c r="L59" t="n">
         <v>0.0</v>
@@ -5546,13 +5505,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -5576,7 +5535,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K60" t="n">
-        <v>0.19661733615221988</v>
+        <v>0.13742071881606766</v>
       </c>
       <c r="L60" t="n">
         <v>0.0</v>
@@ -5590,13 +5549,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -5620,7 +5579,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K61" t="n">
-        <v>0.29809725158562367</v>
+        <v>0.042283298097251586</v>
       </c>
       <c r="L61" t="n">
         <v>0.0</v>
@@ -5634,13 +5593,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D62" t="e">
         <v>#NUM!</v>
@@ -5664,7 +5623,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K62" t="n">
-        <v>0.04439746300211417</v>
+        <v>0.19661733615221988</v>
       </c>
       <c r="L62" t="n">
         <v>0.0</v>
@@ -5678,13 +5637,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D63" t="e">
         <v>#NUM!</v>
@@ -5708,7 +5667,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K63" t="n">
-        <v>0.4714587737843552</v>
+        <v>0.29809725158562367</v>
       </c>
       <c r="L63" t="n">
         <v>0.0</v>
@@ -5725,10 +5684,10 @@
         <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="D64" t="e">
         <v>#NUM!</v>
@@ -5752,7 +5711,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K64" t="n">
-        <v>0.35517970401691334</v>
+        <v>0.4714587737843552</v>
       </c>
       <c r="L64" t="n">
         <v>0.0</v>
@@ -5769,10 +5728,10 @@
         <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D65" t="e">
         <v>#NUM!</v>
@@ -5796,7 +5755,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K65" t="n">
-        <v>0.3192389006342495</v>
+        <v>0.35517970401691334</v>
       </c>
       <c r="L65" t="n">
         <v>0.0</v>
@@ -5813,10 +5772,10 @@
         <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D66" t="e">
         <v>#NUM!</v>
@@ -5840,7 +5799,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K66" t="n">
-        <v>0.4397463002114165</v>
+        <v>0.3192389006342495</v>
       </c>
       <c r="L66" t="n">
         <v>0.0</v>
@@ -5857,10 +5816,10 @@
         <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D67" t="e">
         <v>#NUM!</v>
@@ -5884,10 +5843,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K67" t="n">
-        <v>0.48710359408033826</v>
+        <v>0.4397463002114165</v>
       </c>
       <c r="L67" t="n">
-        <v>0.009359807027982536</v>
+        <v>0.0</v>
       </c>
       <c r="M67" t="e">
         <v>#NUM!</v>
@@ -5901,10 +5860,10 @@
         <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D68" t="e">
         <v>#NUM!</v>
@@ -5928,10 +5887,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K68" t="n">
-        <v>0.4143763213530655</v>
+        <v>0.4989429175475687</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0</v>
+        <v>0.01774443736717997</v>
       </c>
       <c r="M68" t="e">
         <v>#NUM!</v>
@@ -5945,10 +5904,10 @@
         <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D69" t="e">
         <v>#NUM!</v>
@@ -5972,7 +5931,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K69" t="n">
-        <v>0.33403805496828753</v>
+        <v>0.4143763213530655</v>
       </c>
       <c r="L69" t="n">
         <v>0.0</v>
@@ -5989,10 +5948,10 @@
         <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D70" t="e">
         <v>#NUM!</v>
@@ -6033,10 +5992,10 @@
         <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="D71" t="e">
         <v>#NUM!</v>
@@ -6060,7 +6019,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K71" t="n">
-        <v>0.3192389006342495</v>
+        <v>0.33403805496828753</v>
       </c>
       <c r="L71" t="n">
         <v>0.0</v>
@@ -6077,10 +6036,10 @@
         <v>147</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D72" t="e">
         <v>#NUM!</v>
@@ -6104,7 +6063,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K72" t="n">
-        <v>0.26849894291754756</v>
+        <v>0.3192389006342495</v>
       </c>
       <c r="L72" t="n">
         <v>0.0</v>
@@ -6121,10 +6080,10 @@
         <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D73" t="e">
         <v>#NUM!</v>
@@ -6148,7 +6107,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K73" t="n">
-        <v>0.4376321353065539</v>
+        <v>0.26849894291754756</v>
       </c>
       <c r="L73" t="n">
         <v>0.0</v>
@@ -6165,10 +6124,10 @@
         <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D74" t="e">
         <v>#NUM!</v>
@@ -6192,7 +6151,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K74" t="n">
-        <v>0.3678646934460888</v>
+        <v>0.4376321353065539</v>
       </c>
       <c r="L74" t="n">
         <v>0.0</v>
@@ -6209,10 +6168,10 @@
         <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D75" t="e">
         <v>#NUM!</v>
@@ -6236,7 +6195,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K75" t="n">
-        <v>0.35517970401691334</v>
+        <v>0.3678646934460888</v>
       </c>
       <c r="L75" t="n">
         <v>0.0</v>
@@ -6253,10 +6212,10 @@
         <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D76" t="e">
         <v>#NUM!</v>
@@ -6280,15 +6239,59 @@
         <v>#NUM!</v>
       </c>
       <c r="K76" t="n">
+        <v>0.35517970401691334</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N76" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.4693446088794926</v>
       </c>
-      <c r="L76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N76" t="e">
+      <c r="L77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N77" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/output/LUAD_statistics_all subtypes.xlsx
+++ b/output/LUAD_statistics_all subtypes.xlsx
@@ -54,60 +54,60 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>36</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -216,82 +216,82 @@
     <t>54</t>
   </si>
   <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
     <t>Pattern OR_CDKN2A</t>
   </si>
   <si>
+    <t>Mutation NF1</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS</t>
+  </si>
+  <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
     <t>Mutation EGFR</t>
   </si>
   <si>
-    <t>Mutation KRAS</t>
-  </si>
-  <si>
-    <t>Amplification CDK4</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS</t>
+    <t>Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_SMARCA4</t>
+  </si>
+  <si>
+    <t>Mutation ATM</t>
   </si>
   <si>
     <t>Mutation TP53</t>
   </si>
   <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDK4_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_SMARCA4</t>
-  </si>
-  <si>
-    <t>Mutation SMARCA4</t>
+    <t>Mutation KEAP1</t>
   </si>
   <si>
     <t>Mutation ARID1B</t>
   </si>
   <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Mutation NF1</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Amplification KRAS</t>
+  </si>
+  <si>
     <t>Amplification CCND1</t>
   </si>
   <si>
+    <t>Mutation NFE2L2</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
     <t>Amplification EGFR</t>
   </si>
   <si>
-    <t>Amplification KRAS</t>
-  </si>
-  <si>
-    <t>Amplification MDM2</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
   </si>
   <si>
     <t>Mutation RB1</t>
   </si>
   <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation NFE2L2</t>
+    <t>Mutation CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation RET</t>
   </si>
   <si>
     <t>Mutation ROS1</t>
-  </si>
-  <si>
-    <t>Amplification MET</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation RET</t>
   </si>
   <si>
     <t>Amplification CCNE1</t>
@@ -572,10 +572,10 @@
         <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>103.0</v>
+        <v>141.0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0059626167965088</v>
@@ -584,7 +584,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H2" t="n">
-        <v>8.46735787535546E-6</v>
+        <v>8.88220599278587E-4</v>
       </c>
       <c r="I2" t="n">
         <v>100.0</v>
@@ -593,13 +593,13 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.040169133192389</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -616,19 +616,19 @@
         <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>65.0</v>
+        <v>103.0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G3" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H3" t="n">
-        <v>3.24651120035433E-13</v>
+        <v>8.46735787535546E-6</v>
       </c>
       <c r="I3" t="n">
         <v>80.0</v>
@@ -637,16 +637,16 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.04059196617336152</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.0013371152897117902</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N3" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -657,22 +657,22 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>141.0</v>
+        <v>64.0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H4" t="n">
-        <v>8.88220599278587E-4</v>
+        <v>0.0103051123549064</v>
       </c>
       <c r="I4" t="n">
         <v>80.0</v>
@@ -681,16 +681,16 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="5">
@@ -701,22 +701,22 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>29.0</v>
+        <v>48.0</v>
       </c>
       <c r="E5" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0177894166197971</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G5" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H5" t="n">
-        <v>3.80945122355267E-7</v>
+        <v>0.00161509241969472</v>
       </c>
       <c r="I5" t="n">
         <v>80.0</v>
@@ -725,16 +725,16 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L5" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N5" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -745,7 +745,7 @@
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="n">
         <v>158.0</v>
@@ -769,10 +769,10 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.17758985200845667</v>
+        <v>0.179492600422833</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>0.004722160836575322</v>
       </c>
       <c r="M6" t="n">
         <v>0.177589852008457</v>
@@ -789,22 +789,22 @@
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="n">
-        <v>250.0</v>
+        <v>29.0</v>
       </c>
       <c r="E7" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0177894166197971</v>
       </c>
       <c r="G7" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H7" t="n">
-        <v>1.07101678627571E-5</v>
+        <v>3.80945122355267E-7</v>
       </c>
       <c r="I7" t="n">
         <v>60.0</v>
@@ -813,16 +813,16 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L7" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N7" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -833,13 +833,13 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D8" t="n">
-        <v>46.0</v>
+        <v>65.0</v>
       </c>
       <c r="E8" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0058336561716597</v>
@@ -848,7 +848,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00699258708471991</v>
+        <v>3.24651120035433E-13</v>
       </c>
       <c r="I8" t="n">
         <v>40.0</v>
@@ -857,13 +857,13 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.040169133192389</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -877,13 +877,13 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" t="n">
         <v>265.0</v>
       </c>
       <c r="E9" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0059626167965088</v>
@@ -892,7 +892,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>8.27584277446678E-5</v>
       </c>
       <c r="I9" t="n">
         <v>40.0</v>
@@ -901,13 +901,13 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -918,25 +918,25 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D10" t="n">
-        <v>265.0</v>
+        <v>120.0</v>
       </c>
       <c r="E10" t="n">
-        <v>34.0</v>
+        <v>82.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G10" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H10" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>4.12608987825272E-4</v>
       </c>
       <c r="I10" t="n">
         <v>40.0</v>
@@ -945,13 +945,13 @@
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -962,25 +962,25 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D11" t="n">
-        <v>120.0</v>
+        <v>158.0</v>
       </c>
       <c r="E11" t="n">
-        <v>82.0</v>
+        <v>46.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G11" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H11" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>0.00131454955057744</v>
       </c>
       <c r="I11" t="n">
         <v>40.0</v>
@@ -989,13 +989,13 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.173361522198731</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -1009,13 +1009,13 @@
         <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="E12" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0058336561716597</v>
@@ -1024,22 +1024,22 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00161509241969472</v>
+        <v>0.00699258708471991</v>
       </c>
       <c r="I12" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.04059196617336152</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0</v>
+        <v>0.0013371152897117902</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -1050,43 +1050,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" t="n">
-        <v>25.0</v>
+        <v>265.0</v>
       </c>
       <c r="E13" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.414406187123225</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G13" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00877923124276454</v>
+        <v>1.77721953788421E-6</v>
       </c>
       <c r="I13" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="14">
@@ -1094,40 +1094,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D14" t="n">
-        <v>93.0</v>
+        <v>103.0</v>
       </c>
       <c r="E14" t="n">
-        <v>84.0</v>
+        <v>15.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.200982679178368</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G14" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H14" t="n">
-        <v>3.59155834889592E-4</v>
+        <v>0.00167276266869532</v>
       </c>
       <c r="I14" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.17758985200845667</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -1138,25 +1138,25 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D15" t="n">
-        <v>64.0</v>
+        <v>250.0</v>
       </c>
       <c r="E15" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0103051123549064</v>
+        <v>1.07101678627571E-5</v>
       </c>
       <c r="I15" t="n">
         <v>20.0</v>
@@ -1165,13 +1165,13 @@
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L15" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -1182,25 +1182,25 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D16" t="n">
-        <v>158.0</v>
+        <v>93.0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.200982679178368</v>
       </c>
       <c r="G16" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00131454955057744</v>
+        <v>3.59155834889592E-4</v>
       </c>
       <c r="I16" t="n">
         <v>20.0</v>
@@ -1209,13 +1209,13 @@
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.179492600422833</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0</v>
+        <v>0.004722160836575322</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -1226,16 +1226,16 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
       </c>
       <c r="D17" t="n">
-        <v>103.0</v>
+        <v>250.0</v>
       </c>
       <c r="E17" t="n">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.00396825396825397</v>
@@ -1244,7 +1244,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00167276266869532</v>
+        <v>0.00148405904181779</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -1253,13 +1253,13 @@
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -1270,16 +1270,16 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
       </c>
       <c r="D18" t="n">
-        <v>250.0</v>
+        <v>265.0</v>
       </c>
       <c r="E18" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.00396825396825397</v>
@@ -1288,7 +1288,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00148405904181779</v>
+        <v>9.13202144083936E-5</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -1297,16 +1297,16 @@
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="19">
@@ -1314,25 +1314,25 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>92</v>
       </c>
       <c r="D19" t="n">
-        <v>265.0</v>
+        <v>25.0</v>
       </c>
       <c r="E19" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.414406187123225</v>
       </c>
       <c r="G19" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H19" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>0.00877923124276454</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -1341,13 +1341,13 @@
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L19" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N19" t="n">
         <v>2.31296463463574E-18</v>
@@ -1388,7 +1388,7 @@
         <v>0.05708245243128964</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -1405,7 +1405,7 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1432,7 +1432,7 @@
         <v>0.0613107822410148</v>
       </c>
       <c r="L21" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M21" t="e">
         <v>#NUM!</v>
@@ -1669,7 +1669,7 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1801,7 +1801,7 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1916,7 +1916,7 @@
         <v>0.06553911205073996</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M32" t="e">
         <v>#NUM!</v>
@@ -1933,7 +1933,7 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -2109,7 +2109,7 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2153,7 +2153,7 @@
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -2329,7 +2329,7 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -2441,10 +2441,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K44" t="n">
-        <v>0.48710359408033826</v>
+        <v>0.49577167019027485</v>
       </c>
       <c r="L44" t="n">
-        <v>0.009359807027982536</v>
+        <v>0.018863648786926254</v>
       </c>
       <c r="M44" t="e">
         <v>#NUM!</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -3003,10 +3003,10 @@
         <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>103.0</v>
+        <v>141.0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0059626167965088</v>
@@ -3015,7 +3015,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H2" t="n">
-        <v>8.46735787535546E-6</v>
+        <v>8.88220599278587E-4</v>
       </c>
       <c r="I2" t="n">
         <v>100.0</v>
@@ -3024,13 +3024,13 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.040169133192389</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -3047,19 +3047,19 @@
         <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>65.0</v>
+        <v>103.0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G3" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H3" t="n">
-        <v>3.24651120035433E-13</v>
+        <v>8.46735787535546E-6</v>
       </c>
       <c r="I3" t="n">
         <v>80.0</v>
@@ -3068,42 +3068,42 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.04059196617336152</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.0013371152897117902</v>
       </c>
       <c r="M3" t="n">
-        <v>0.126427061310782</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00579416625541775</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>141.0</v>
+        <v>64.0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H4" t="n">
-        <v>8.88220599278587E-4</v>
+        <v>0.0103051123549064</v>
       </c>
       <c r="I4" t="n">
         <v>80.0</v>
@@ -3112,13 +3112,13 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -3126,28 +3126,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>29.0</v>
+        <v>48.0</v>
       </c>
       <c r="E5" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0177894166197971</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G5" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H5" t="n">
-        <v>3.80945122355267E-7</v>
+        <v>0.00161509241969472</v>
       </c>
       <c r="I5" t="n">
         <v>80.0</v>
@@ -3156,16 +3156,16 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L5" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0558139534883721</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00267423057942358</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -3176,7 +3176,7 @@
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="n">
         <v>158.0</v>
@@ -3200,10 +3200,10 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.17758985200845667</v>
+        <v>0.179492600422833</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>0.004722160836575322</v>
       </c>
       <c r="M6" t="n">
         <v>0.177589852008457</v>
@@ -3214,28 +3214,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="n">
-        <v>250.0</v>
+        <v>29.0</v>
       </c>
       <c r="E7" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0177894166197971</v>
       </c>
       <c r="G7" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H7" t="n">
-        <v>1.07101678627571E-5</v>
+        <v>3.80945122355267E-7</v>
       </c>
       <c r="I7" t="n">
         <v>60.0</v>
@@ -3244,13 +3244,13 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L7" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -3258,19 +3258,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D8" t="n">
-        <v>46.0</v>
+        <v>65.0</v>
       </c>
       <c r="E8" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0058336561716597</v>
@@ -3279,7 +3279,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00699258708471991</v>
+        <v>3.24651120035433E-13</v>
       </c>
       <c r="I8" t="n">
         <v>40.0</v>
@@ -3288,33 +3288,33 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.040169133192389</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.040169133192389</v>
+        <v>0.124947145877378</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0.00416322917202027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" t="n">
         <v>265.0</v>
       </c>
       <c r="E9" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0059626167965088</v>
@@ -3323,7 +3323,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>8.27584277446678E-5</v>
       </c>
       <c r="I9" t="n">
         <v>40.0</v>
@@ -3332,42 +3332,42 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N9" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D10" t="n">
-        <v>265.0</v>
+        <v>120.0</v>
       </c>
       <c r="E10" t="n">
-        <v>34.0</v>
+        <v>82.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G10" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H10" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>4.12608987825272E-4</v>
       </c>
       <c r="I10" t="n">
         <v>40.0</v>
@@ -3376,13 +3376,13 @@
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -3390,28 +3390,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D11" t="n">
-        <v>120.0</v>
+        <v>158.0</v>
       </c>
       <c r="E11" t="n">
-        <v>82.0</v>
+        <v>46.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G11" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H11" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>0.00131454955057744</v>
       </c>
       <c r="I11" t="n">
         <v>40.0</v>
@@ -3420,13 +3420,13 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.173361522198731</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -3434,19 +3434,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="E12" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0058336561716597</v>
@@ -3455,22 +3455,22 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00161509241969472</v>
+        <v>0.00699258708471991</v>
       </c>
       <c r="I12" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.04059196617336152</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0</v>
+        <v>0.0013371152897117902</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -3478,87 +3478,87 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" t="n">
-        <v>25.0</v>
+        <v>265.0</v>
       </c>
       <c r="E13" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.414406187123225</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G13" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00877923124276454</v>
+        <v>1.77721953788421E-6</v>
       </c>
       <c r="I13" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0551797040169133</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N13" t="n">
-        <v>6.68557644855895E-4</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D14" t="n">
-        <v>93.0</v>
+        <v>103.0</v>
       </c>
       <c r="E14" t="n">
-        <v>84.0</v>
+        <v>15.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.200982679178368</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G14" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H14" t="n">
-        <v>3.59155834889592E-4</v>
+        <v>0.00167276266869532</v>
       </c>
       <c r="I14" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.17758985200845667</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -3566,28 +3566,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D15" t="n">
-        <v>64.0</v>
+        <v>250.0</v>
       </c>
       <c r="E15" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0103051123549064</v>
+        <v>1.07101678627571E-5</v>
       </c>
       <c r="I15" t="n">
         <v>20.0</v>
@@ -3596,42 +3596,42 @@
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L15" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>6.5420519111824E-18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D16" t="n">
-        <v>158.0</v>
+        <v>93.0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.200982679178368</v>
       </c>
       <c r="G16" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00131454955057744</v>
+        <v>3.59155834889592E-4</v>
       </c>
       <c r="I16" t="n">
         <v>20.0</v>
@@ -3640,13 +3640,13 @@
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.179492600422833</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0</v>
+        <v>0.004722160836575322</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -3654,13 +3654,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" t="n">
         <v>48.0</v>
@@ -3684,10 +3684,10 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.040169133192389</v>
+        <v>0.04059196617336152</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0</v>
+        <v>0.0013371152897117902</v>
       </c>
       <c r="M17" t="n">
         <v>0.040169133192389</v>
@@ -3701,7 +3701,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>93</v>
@@ -3731,7 +3731,7 @@
         <v>0.05708245243128964</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M18" t="n">
         <v>0.0570824524312896</v>
@@ -3742,13 +3742,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D19" t="n">
         <v>266.0</v>
@@ -3778,21 +3778,21 @@
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0638477801268499</v>
       </c>
       <c r="N19" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0147082681868297</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" t="n">
         <v>250.0</v>
@@ -3836,7 +3836,7 @@
         <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" t="n">
         <v>27.0</v>
@@ -3877,10 +3877,10 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" t="n">
         <v>250.0</v>
@@ -3918,43 +3918,43 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D23" t="n">
-        <v>103.0</v>
+        <v>93.0</v>
       </c>
       <c r="E23" t="n">
-        <v>15.0</v>
+        <v>59.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00167276266869532</v>
+        <v>0.0204179464513697</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.12473572938689217</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.124735729386892</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -3962,16 +3962,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
         <v>94</v>
       </c>
       <c r="D24" t="n">
-        <v>93.0</v>
+        <v>158.0</v>
       </c>
       <c r="E24" t="n">
         <v>59.0</v>
@@ -3980,10 +3980,10 @@
         <v>0.0059626167965088</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0204179464513697</v>
+        <v>0.00334798701112857</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -4001,33 +4001,33 @@
         <v>0.124735729386892</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" t="n">
-        <v>158.0</v>
+        <v>64.0</v>
       </c>
       <c r="E25" t="n">
-        <v>59.0</v>
+        <v>37.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G25" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00334798701112857</v>
+        <v>0.00333892782400472</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -4036,13 +4036,13 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.12473572938689217</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.124735729386892</v>
+        <v>0.0782241014799154</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -4050,16 +4050,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
         <v>95</v>
       </c>
       <c r="D26" t="n">
-        <v>64.0</v>
+        <v>250.0</v>
       </c>
       <c r="E26" t="n">
         <v>37.0</v>
@@ -4068,10 +4068,10 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.00793650793650794</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00333892782400472</v>
+        <v>0.0641712118646901</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -4094,28 +4094,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" t="n">
-        <v>250.0</v>
+        <v>37.0</v>
       </c>
       <c r="E27" t="n">
-        <v>37.0</v>
+        <v>28.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00793650793650794</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0641712118646901</v>
+        <v>0.015920859802431</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -4124,42 +4124,42 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0782241014799154</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>96</v>
       </c>
       <c r="D28" t="n">
-        <v>37.0</v>
+        <v>46.0</v>
       </c>
       <c r="E28" t="n">
         <v>28.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G28" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H28" t="n">
-        <v>0.015920859802431</v>
+        <v>0.0142728080658903</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -4182,28 +4182,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
         <v>96</v>
       </c>
       <c r="D29" t="n">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
       <c r="E29" t="n">
         <v>28.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0468463097466241</v>
       </c>
       <c r="G29" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0142728080658903</v>
+        <v>0.0417860943528127</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -4226,28 +4226,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D30" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="E30" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0468463097466241</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="G30" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0417860943528127</v>
+        <v>0.00528885616238524</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -4256,42 +4256,42 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N30" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D31" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="E31" t="n">
         <v>25.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00528885616238524</v>
+        <v>0.00130554100709877</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -4303,39 +4303,39 @@
         <v>0.052854122621564484</v>
       </c>
       <c r="L31" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M31" t="n">
         <v>0.0528541226215645</v>
       </c>
       <c r="N31" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" t="n">
-        <v>31.0</v>
+        <v>84.0</v>
       </c>
       <c r="E32" t="n">
-        <v>25.0</v>
+        <v>46.0</v>
       </c>
       <c r="F32" t="n">
         <v>0.0059626167965088</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00130554100709877</v>
+        <v>0.00153994324064719</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -4344,13 +4344,13 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L32" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -4358,28 +4358,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D33" t="n">
-        <v>84.0</v>
+        <v>31.0</v>
       </c>
       <c r="E33" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
       <c r="F33" t="n">
+        <v>0.0172268185197356</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.0059626167965088</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.00396825396825397</v>
-      </c>
       <c r="H33" t="n">
-        <v>0.00153994324064719</v>
+        <v>0.00352256830938948</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -4388,16 +4388,16 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="34">
@@ -4405,31 +4405,31 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" t="n">
-        <v>31.0</v>
+        <v>250.0</v>
       </c>
       <c r="E34" t="n">
         <v>25.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0172268185197356</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00352256830938948</v>
+        <v>0.00148405904181779</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K34" t="n">
         <v>0.052854122621564484</v>
@@ -4441,77 +4441,77 @@
         <v>0.0528541226215645</v>
       </c>
       <c r="N34" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D35" t="n">
-        <v>250.0</v>
+        <v>93.0</v>
       </c>
       <c r="E35" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G35" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00148405904181779</v>
+        <v>0.0572545435376393</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="D36" t="n">
-        <v>93.0</v>
+        <v>250.0</v>
       </c>
       <c r="E36" t="n">
-        <v>31.0</v>
+        <v>64.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G36" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0572545435376393</v>
+        <v>0.0500405705476867</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -4520,13 +4520,13 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.13530655391120508</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06553911205074</v>
+        <v>0.135306553911205</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -4534,28 +4534,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D37" t="n">
-        <v>250.0</v>
+        <v>37.0</v>
       </c>
       <c r="E37" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.00798534817689006</v>
       </c>
       <c r="G37" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0500405705476867</v>
+        <v>0.00573068158794917</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -4564,13 +4564,13 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.13530655391120508</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.135306553911205</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -4578,28 +4578,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
         <v>102</v>
       </c>
       <c r="D38" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="E38" t="n">
         <v>27.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00798534817689006</v>
+        <v>0.00793650793650794</v>
       </c>
       <c r="G38" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00573068158794917</v>
+        <v>0.00496140462033587</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -4622,28 +4622,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D39" t="n">
-        <v>41.0</v>
+        <v>59.0</v>
       </c>
       <c r="E39" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00793650793650794</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G39" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00496140462033587</v>
+        <v>0.00872783618701037</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -4652,13 +4652,13 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -4666,16 +4666,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D40" t="n">
-        <v>59.0</v>
+        <v>78.0</v>
       </c>
       <c r="E40" t="n">
         <v>31.0</v>
@@ -4687,7 +4687,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00872783618701037</v>
+        <v>0.0865916560787768</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -4710,28 +4710,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D41" t="n">
-        <v>78.0</v>
+        <v>222.0</v>
       </c>
       <c r="E41" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G41" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0865916560787768</v>
+        <v>0.00201437246540173</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -4740,42 +4740,42 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L41" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0782241014799154</v>
       </c>
       <c r="N41" t="n">
-        <v>6.5420519111824E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D42" t="n">
-        <v>222.0</v>
+        <v>46.0</v>
       </c>
       <c r="E42" t="n">
-        <v>37.0</v>
+        <v>23.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G42" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H42" t="n">
-        <v>0.00201437246540173</v>
+        <v>0.145038385111565</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -4784,13 +4784,13 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0782241014799154</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -4798,16 +4798,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" t="n">
-        <v>46.0</v>
+        <v>93.0</v>
       </c>
       <c r="E43" t="n">
         <v>23.0</v>
@@ -4816,10 +4816,10 @@
         <v>0.0059626167965088</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H43" t="n">
-        <v>0.145038385111565</v>
+        <v>0.0914870429913643</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -4831,7 +4831,7 @@
         <v>0.048625792811839326</v>
       </c>
       <c r="L43" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M43" t="n">
         <v>0.0486257928118393</v>
@@ -4842,40 +4842,40 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" t="n">
-        <v>93.0</v>
+        <v>265.0</v>
       </c>
       <c r="E44" t="n">
         <v>23.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0914870429913643</v>
+        <v>9.13202144083936E-5</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K44" t="n">
         <v>0.048625792811839326</v>
       </c>
       <c r="L44" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M44" t="n">
         <v>0.0486257928118393</v>
@@ -4886,43 +4886,43 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
         <v>92</v>
       </c>
       <c r="D45" t="n">
-        <v>265.0</v>
+        <v>26.0</v>
       </c>
       <c r="E45" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0166693416357932</v>
       </c>
       <c r="G45" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H45" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>0.0165947985726984</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L45" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N45" t="n">
         <v>2.31296463463574E-18</v>
@@ -4930,34 +4930,34 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D46" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="E46" t="n">
         <v>26.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0166693416357932</v>
+        <v>0.414406187123225</v>
       </c>
       <c r="G46" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0165947985726984</v>
+        <v>0.00877923124276454</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K46" t="n">
         <v>0.05496828752642706</v>
@@ -4966,10 +4966,10 @@
         <v>0.0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0551797040169133</v>
       </c>
       <c r="N46" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>6.68557644855895E-4</v>
       </c>
     </row>
     <row r="47">
@@ -4977,10 +4977,10 @@
         <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D47" t="n">
         <v>250.0</v>
@@ -5068,7 +5068,7 @@
         <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D49" t="n">
         <v>93.0</v>
@@ -5109,10 +5109,10 @@
         <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D50" t="n">
         <v>250.0</v>
@@ -5145,7 +5145,7 @@
         <v>0.101479915433404</v>
       </c>
       <c r="N50" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -5153,10 +5153,10 @@
         <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D51" t="n">
         <v>250.0</v>
@@ -5197,7 +5197,7 @@
         <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
         <v>107</v>
@@ -5241,7 +5241,7 @@
         <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
         <v>75</v>
@@ -5326,13 +5326,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -5359,7 +5359,7 @@
         <v>0.0613107822410148</v>
       </c>
       <c r="L55" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M55" t="e">
         <v>#NUM!</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
@@ -5464,7 +5464,7 @@
         <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
         <v>80</v>
@@ -5596,7 +5596,7 @@
         <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -5684,7 +5684,7 @@
         <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D63" t="e">
         <v>#NUM!</v>
@@ -5884,10 +5884,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K67" t="n">
-        <v>0.48710359408033826</v>
+        <v>0.49577167019027485</v>
       </c>
       <c r="L67" t="n">
-        <v>0.009359807027982536</v>
+        <v>0.018863648786926254</v>
       </c>
       <c r="M67" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_all subtypes.xlsx
+++ b/output/LUAD_statistics_all subtypes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="153">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -54,114 +54,114 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
@@ -213,262 +213,265 @@
     <t>53</t>
   </si>
   <si>
+    <t>Mutation EGFR</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
+    <t>Mutation TP53</t>
+  </si>
+  <si>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
+    <t>Mutation ROS1</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
+    <t>Amplification KRAS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Amplification EGFR</t>
+  </si>
+  <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Mutation ARID1B</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
+  </si>
+  <si>
+    <t>Mutation NFE2L2</t>
+  </si>
+  <si>
+    <t>Mutation RET</t>
+  </si>
+  <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Mutation CDKN2A</t>
+  </si>
+  <si>
+    <t>Amplification CCNE1</t>
+  </si>
+  <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation ALK</t>
+  </si>
+  <si>
+    <t>Mutation ARID1A</t>
+  </si>
+  <si>
+    <t>Mutation ARID2</t>
+  </si>
+  <si>
+    <t>Mutation BRAF</t>
+  </si>
+  <si>
+    <t>Mutation ERBB2</t>
+  </si>
+  <si>
+    <t>Mutation MET</t>
+  </si>
+  <si>
+    <t>Mutation MTOR</t>
+  </si>
+  <si>
+    <t>Mutation NF1</t>
+  </si>
+  <si>
+    <t>Mutation PIK3CA</t>
+  </si>
+  <si>
+    <t>Mutation RBM10</t>
+  </si>
+  <si>
+    <t>Mutation SETD2</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_KRAS</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_SMARCA4</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_STK11</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS_EGFR_NF1_BRAF_MET</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_MDM2_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_STK11_EGFR_ERBB2</t>
+  </si>
+  <si>
+    <t>Pattern OR_STK11_TP53</t>
+  </si>
+  <si>
+    <t>Pattern XOR_KRAS_EGFR</t>
+  </si>
+  <si>
+    <t>Pattern XOR_MET</t>
+  </si>
+  <si>
+    <t>capri_aic.SELECTS</t>
+  </si>
+  <si>
+    <t>capri_aic.SELECTED</t>
+  </si>
+  <si>
+    <t>capri_aic.OBS.SELECTS</t>
+  </si>
+  <si>
+    <t>capri_aic.OBS.SELECTED</t>
+  </si>
+  <si>
+    <t>capri_aic.TEMPORAL.PRIORITY</t>
+  </si>
+  <si>
+    <t>capri_aic.PROBABILITY.RAISING</t>
+  </si>
+  <si>
+    <t>capri_aic.HYPERGEOMETRIC</t>
+  </si>
+  <si>
+    <t>capri_aic.NONPAR.BOOT</t>
+  </si>
+  <si>
+    <t>capri_aic.STAT.BOOT</t>
+  </si>
+  <si>
+    <t>capri_aic.MEAN.PREDERR</t>
+  </si>
+  <si>
+    <t>capri_aic.SD.PREDERR</t>
+  </si>
+  <si>
+    <t>capri_aic.MEAN.POSTERR</t>
+  </si>
+  <si>
+    <t>capri_aic.SD.POSTERR</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>54</t>
   </si>
   <si>
-    <t>Mutation KRAS</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation NF1</t>
-  </si>
-  <si>
-    <t>Mutation SMARCA4</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS</t>
-  </si>
-  <si>
-    <t>Amplification CDK4</t>
-  </si>
-  <si>
-    <t>Mutation EGFR</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDK4_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_SMARCA4</t>
-  </si>
-  <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Mutation TP53</t>
-  </si>
-  <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Mutation ARID1B</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Amplification KRAS</t>
-  </si>
-  <si>
-    <t>Amplification CCND1</t>
-  </si>
-  <si>
-    <t>Mutation NFE2L2</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Amplification MDM2</t>
-  </si>
-  <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Amplification MET</t>
-  </si>
-  <si>
-    <t>Mutation RB1</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation RET</t>
-  </si>
-  <si>
-    <t>Mutation ROS1</t>
-  </si>
-  <si>
-    <t>Amplification CCNE1</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
-    <t>Mutation ALK</t>
-  </si>
-  <si>
-    <t>Mutation ARID1A</t>
-  </si>
-  <si>
-    <t>Mutation ARID2</t>
-  </si>
-  <si>
-    <t>Mutation BRAF</t>
-  </si>
-  <si>
-    <t>Mutation ERBB2</t>
-  </si>
-  <si>
-    <t>Mutation MET</t>
-  </si>
-  <si>
-    <t>Mutation MTOR</t>
-  </si>
-  <si>
-    <t>Mutation PIK3CA</t>
-  </si>
-  <si>
-    <t>Mutation RBM10</t>
-  </si>
-  <si>
-    <t>Mutation SETD2</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_STK11</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS_EGFR_NF1_BRAF_MET</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_MDM2_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_STK11_EGFR_ERBB2</t>
-  </si>
-  <si>
-    <t>Pattern OR_STK11_TP53</t>
-  </si>
-  <si>
-    <t>Pattern XOR_KRAS_EGFR</t>
-  </si>
-  <si>
-    <t>Pattern XOR_MET</t>
-  </si>
-  <si>
-    <t>capri_aic.SELECTS</t>
-  </si>
-  <si>
-    <t>capri_aic.SELECTED</t>
-  </si>
-  <si>
-    <t>capri_aic.OBS.SELECTS</t>
-  </si>
-  <si>
-    <t>capri_aic.OBS.SELECTED</t>
-  </si>
-  <si>
-    <t>capri_aic.TEMPORAL.PRIORITY</t>
-  </si>
-  <si>
-    <t>capri_aic.PROBABILITY.RAISING</t>
-  </si>
-  <si>
-    <t>capri_aic.HYPERGEOMETRIC</t>
-  </si>
-  <si>
-    <t>capri_aic.NONPAR.BOOT</t>
-  </si>
-  <si>
-    <t>capri_aic.STAT.BOOT</t>
-  </si>
-  <si>
-    <t>capri_aic.MEAN.PREDERR</t>
-  </si>
-  <si>
-    <t>capri_aic.SD.PREDERR</t>
-  </si>
-  <si>
-    <t>capri_aic.MEAN.POSTERR</t>
-  </si>
-  <si>
-    <t>capri_aic.SD.POSTERR</t>
-  </si>
-  <si>
-    <t>57</t>
+    <t>55</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
-    <t>55</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t>62</t>
   </si>
   <si>
-    <t>63</t>
+    <t>65</t>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>75</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
   </si>
 </sst>
 </file>
@@ -566,25 +569,25 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>141.0</v>
+        <v>65.0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.27750413602892E-34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.2789807586468E-34</v>
       </c>
       <c r="H2" t="n">
-        <v>8.88220599278587E-4</v>
+        <v>2.34043725186344E-8</v>
       </c>
       <c r="I2" t="n">
         <v>100.0</v>
@@ -593,13 +596,13 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -610,40 +613,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
-        <v>103.0</v>
+        <v>265.0</v>
       </c>
       <c r="E3" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.21331384976196E-34</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.26964773028488E-34</v>
       </c>
       <c r="H3" t="n">
-        <v>8.46735787535546E-6</v>
+        <v>1.3099503583219E-6</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04059196617336152</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0013371152897117902</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -654,43 +657,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>64.0</v>
+        <v>29.0</v>
       </c>
       <c r="E4" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00396825396825397</v>
+        <v>3.11513097132402E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0158730158730159</v>
+        <v>1.27710882602122E-34</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0103051123549064</v>
+        <v>1.34895703589137E-9</v>
       </c>
       <c r="I4" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N4" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -698,43 +701,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" t="n">
-        <v>48.0</v>
+        <v>250.0</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0</v>
+        <v>31.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.1996320229215E-34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.27934105177767E-34</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00161509241969472</v>
+        <v>9.31487623968685E-6</v>
       </c>
       <c r="I5" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="6">
@@ -742,37 +745,37 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>158.0</v>
+        <v>93.0</v>
       </c>
       <c r="E6" t="n">
         <v>84.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0059626167965088</v>
+        <v>5.92610852923476E-11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.40076465372556E-34</v>
       </c>
       <c r="H6" t="n">
-        <v>1.11208450607907E-5</v>
+        <v>9.54957167667665E-5</v>
       </c>
       <c r="I6" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.179492600422833</v>
+        <v>0.17780126849894293</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004722160836575322</v>
+        <v>6.685576448558929E-4</v>
       </c>
       <c r="M6" t="n">
         <v>0.177589852008457</v>
@@ -786,40 +789,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D7" t="n">
-        <v>29.0</v>
+        <v>141.0</v>
       </c>
       <c r="E7" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0177894166197971</v>
+        <v>1.20716898087554E-34</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.40220830353988E-34</v>
       </c>
       <c r="H7" t="n">
-        <v>3.80945122355267E-7</v>
+        <v>0.00439810392437882</v>
       </c>
       <c r="I7" t="n">
-        <v>60.0</v>
+        <v>99.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -830,40 +833,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" t="n">
-        <v>65.0</v>
+        <v>26.0</v>
       </c>
       <c r="E8" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.230463819865231</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.50685764247491E-34</v>
       </c>
       <c r="H8" t="n">
-        <v>3.24651120035433E-13</v>
+        <v>1.22924557080361E-4</v>
       </c>
       <c r="I8" t="n">
-        <v>40.0</v>
+        <v>99.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -874,40 +877,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
-        <v>265.0</v>
+        <v>158.0</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0</v>
+        <v>84.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.2352705485436E-34</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.35901809531459E-34</v>
       </c>
       <c r="H9" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>5.83787118574287E-5</v>
       </c>
       <c r="I9" t="n">
-        <v>40.0</v>
+        <v>99.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.17780126849894293</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0</v>
+        <v>6.685576448558929E-4</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -918,40 +921,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D10" t="n">
-        <v>120.0</v>
+        <v>103.0</v>
       </c>
       <c r="E10" t="n">
-        <v>82.0</v>
+        <v>15.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.14193063028248E-34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00396825396825397</v>
+        <v>4.84099107273283E-34</v>
       </c>
       <c r="H10" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>0.00398467763664485</v>
       </c>
       <c r="I10" t="n">
-        <v>40.0</v>
+        <v>1.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.173361522198731</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -962,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
@@ -974,16 +977,16 @@
         <v>46.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.22894814189563E-34</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.44329763931428E-34</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00131454955057744</v>
+        <v>5.9054705516599E-4</v>
       </c>
       <c r="I11" t="n">
-        <v>40.0</v>
+        <v>1.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
@@ -1006,40 +1009,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D12" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="E12" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.15751855688404E-34</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00396825396825397</v>
+        <v>5.13633444044432E-34</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00699258708471991</v>
+        <v>0.00221679363656914</v>
       </c>
       <c r="I12" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04059196617336152</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0013371152897117902</v>
+        <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -1050,7 +1053,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>86</v>
@@ -1059,34 +1062,34 @@
         <v>265.0</v>
       </c>
       <c r="E13" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.20785024514573E-34</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.27970144370964E-34</v>
       </c>
       <c r="H13" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>0.00144379662133346</v>
       </c>
       <c r="I13" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N13" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -1094,40 +1097,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" t="n">
-        <v>103.0</v>
+        <v>46.0</v>
       </c>
       <c r="E14" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.17192315497953E-34</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.35695424691269E-34</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00167276266869532</v>
+        <v>0.00462043917431882</v>
       </c>
       <c r="I14" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -1138,40 +1141,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" t="n">
-        <v>250.0</v>
+        <v>103.0</v>
       </c>
       <c r="E15" t="n">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.18175642458777E-34</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.31910172907252E-34</v>
       </c>
       <c r="H15" t="n">
-        <v>1.07101678627571E-5</v>
+        <v>2.87748894071806E-4</v>
       </c>
       <c r="I15" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L15" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06553911205074</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -1182,40 +1185,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D16" t="n">
-        <v>93.0</v>
+        <v>34.0</v>
       </c>
       <c r="E16" t="n">
-        <v>84.0</v>
+        <v>29.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.200982679178368</v>
+        <v>6.68835988379306E-10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.67420369046413E-34</v>
       </c>
       <c r="H16" t="n">
-        <v>3.59155834889592E-4</v>
+        <v>8.18797892426578E-5</v>
       </c>
       <c r="I16" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.179492600422833</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004722160836575322</v>
+        <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -1226,10 +1229,10 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" t="n">
         <v>250.0</v>
@@ -1238,13 +1241,13 @@
         <v>25.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.19990282760418E-34</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.51825316129327E-33</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00148405904181779</v>
+        <v>0.00244603283957377</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -1262,7 +1265,7 @@
         <v>0.0528541226215645</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="18">
@@ -1270,25 +1273,25 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D18" t="n">
-        <v>265.0</v>
+        <v>250.0</v>
       </c>
       <c r="E18" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.20274987211075E-34</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.72701342298077E-34</v>
       </c>
       <c r="H18" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>9.10299739159604E-4</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -1297,16 +1300,16 @@
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N18" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -1314,25 +1317,25 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D19" t="n">
-        <v>25.0</v>
+        <v>103.0</v>
       </c>
       <c r="E19" t="n">
-        <v>26.0</v>
+        <v>48.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.414406187123225</v>
+        <v>1.22403716286637E-34</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.33073820932236E-34</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00877923124276454</v>
+        <v>0.00131533878106072</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -1341,16 +1344,16 @@
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.1014799154334038</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.101479915433404</v>
       </c>
       <c r="N19" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -1358,10 +1361,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1402,10 +1405,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1429,7 +1432,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0613107822410148</v>
+        <v>0.12473572938689217</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -1446,10 +1449,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1473,7 +1476,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K22" t="n">
-        <v>0.12473572938689217</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -1490,10 +1493,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -1534,10 +1537,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -1578,10 +1581,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1622,10 +1625,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -1666,10 +1669,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1710,10 +1713,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1754,10 +1757,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1798,10 +1801,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1842,10 +1845,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -1886,10 +1889,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1916,7 +1919,7 @@
         <v>0.06553911205073996</v>
       </c>
       <c r="L32" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>6.542051911182396E-18</v>
       </c>
       <c r="M32" t="e">
         <v>#NUM!</v>
@@ -1930,10 +1933,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -1974,10 +1977,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -2004,7 +2007,7 @@
         <v>0.05708245243128964</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M34" t="e">
         <v>#NUM!</v>
@@ -2018,10 +2021,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -2062,10 +2065,10 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -2106,10 +2109,10 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2133,7 +2136,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1014799154334038</v>
+        <v>0.4714587737843552</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
@@ -2150,10 +2153,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -2177,7 +2180,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4714587737843552</v>
+        <v>0.35517970401691334</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
@@ -2194,10 +2197,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -2221,7 +2224,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K39" t="n">
-        <v>0.35517970401691334</v>
+        <v>0.3192389006342495</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
@@ -2238,10 +2241,10 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -2265,7 +2268,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3192389006342495</v>
+        <v>0.4397463002114165</v>
       </c>
       <c r="L40" t="n">
         <v>0.0</v>
@@ -2282,7 +2285,7 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
@@ -2309,7 +2312,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4397463002114165</v>
+        <v>0.21775898520084566</v>
       </c>
       <c r="L41" t="n">
         <v>0.0</v>
@@ -2326,10 +2329,10 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -2353,7 +2356,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K42" t="n">
-        <v>0.21775898520084566</v>
+        <v>0.1649048625792812</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
@@ -2370,10 +2373,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" t="e">
         <v>#NUM!</v>
@@ -2397,10 +2400,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1649048625792812</v>
+        <v>0.49725158562367866</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0</v>
+        <v>0.02044421633766737</v>
       </c>
       <c r="M43" t="e">
         <v>#NUM!</v>
@@ -2414,10 +2417,10 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" t="e">
         <v>#NUM!</v>
@@ -2441,10 +2444,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K44" t="n">
-        <v>0.49577167019027485</v>
+        <v>0.4143763213530655</v>
       </c>
       <c r="L44" t="n">
-        <v>0.018863648786926254</v>
+        <v>0.0</v>
       </c>
       <c r="M44" t="e">
         <v>#NUM!</v>
@@ -2458,10 +2461,10 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45" t="e">
         <v>#NUM!</v>
@@ -2485,7 +2488,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4143763213530655</v>
+        <v>0.2536997885835095</v>
       </c>
       <c r="L45" t="n">
         <v>0.0</v>
@@ -2502,10 +2505,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -2529,7 +2532,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2536997885835095</v>
+        <v>0.33403805496828753</v>
       </c>
       <c r="L46" t="n">
         <v>0.0</v>
@@ -2546,10 +2549,10 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D47" t="e">
         <v>#NUM!</v>
@@ -2590,10 +2593,10 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -2617,7 +2620,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K48" t="n">
-        <v>0.33403805496828753</v>
+        <v>0.3192389006342495</v>
       </c>
       <c r="L48" t="n">
         <v>0.0</v>
@@ -2634,7 +2637,7 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
         <v>111</v>
@@ -2661,7 +2664,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3192389006342495</v>
+        <v>0.26849894291754756</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
@@ -2678,7 +2681,7 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
         <v>112</v>
@@ -2705,7 +2708,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K50" t="n">
-        <v>0.26849894291754756</v>
+        <v>0.4376321353065539</v>
       </c>
       <c r="L50" t="n">
         <v>0.0</v>
@@ -2722,7 +2725,7 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
         <v>113</v>
@@ -2749,7 +2752,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4376321353065539</v>
+        <v>0.3678646934460888</v>
       </c>
       <c r="L51" t="n">
         <v>0.0</v>
@@ -2766,7 +2769,7 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
         <v>114</v>
@@ -2793,7 +2796,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K52" t="n">
-        <v>0.3678646934460888</v>
+        <v>0.35517970401691334</v>
       </c>
       <c r="L52" t="n">
         <v>0.0</v>
@@ -2810,7 +2813,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
         <v>115</v>
@@ -2837,7 +2840,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K53" t="n">
-        <v>0.35517970401691334</v>
+        <v>0.4693446088794926</v>
       </c>
       <c r="L53" t="n">
         <v>0.0</v>
@@ -2854,7 +2857,7 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
         <v>116</v>
@@ -2881,7 +2884,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4693446088794926</v>
+        <v>0.07610993657505286</v>
       </c>
       <c r="L54" t="n">
         <v>0.0</v>
@@ -2890,50 +2893,6 @@
         <v>#NUM!</v>
       </c>
       <c r="N54" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.07610993657505286</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N55" t="e">
         <v>#NUM!</v>
       </c>
     </row>
@@ -2953,69 +2912,69 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>122</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>123</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>124</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>126</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>127</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>129</v>
-      </c>
-      <c r="N1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>141.0</v>
+        <v>65.0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.27750413602892E-34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.2789807586468E-34</v>
       </c>
       <c r="H2" t="n">
-        <v>8.88220599278587E-4</v>
+        <v>2.34043725186344E-8</v>
       </c>
       <c r="I2" t="n">
         <v>100.0</v>
@@ -3024,145 +2983,145 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.123044397463002</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>0.00534846115884715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
-        <v>103.0</v>
+        <v>265.0</v>
       </c>
       <c r="E3" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.21331384976196E-34</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.26964773028488E-34</v>
       </c>
       <c r="H3" t="n">
-        <v>8.46735787535546E-6</v>
+        <v>1.3099503583219E-6</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04059196617336152</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0013371152897117902</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>64.0</v>
+        <v>29.0</v>
       </c>
       <c r="E4" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00396825396825397</v>
+        <v>3.11513097132402E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0158730158730159</v>
+        <v>1.27710882602122E-34</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0103051123549064</v>
+        <v>1.34895703589137E-9</v>
       </c>
       <c r="I4" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" t="n">
-        <v>48.0</v>
+        <v>250.0</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0</v>
+        <v>31.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.1996320229215E-34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.27934105177767E-34</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00161509241969472</v>
+        <v>9.31487623968685E-6</v>
       </c>
       <c r="I5" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -3170,40 +3129,40 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>158.0</v>
+        <v>93.0</v>
       </c>
       <c r="E6" t="n">
         <v>84.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0059626167965088</v>
+        <v>5.92610852923476E-11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.40076465372556E-34</v>
       </c>
       <c r="H6" t="n">
-        <v>1.11208450607907E-5</v>
+        <v>9.54957167667665E-5</v>
       </c>
       <c r="I6" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.179492600422833</v>
+        <v>0.17780126849894293</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004722160836575322</v>
+        <v>6.685576448558929E-4</v>
       </c>
       <c r="M6" t="n">
         <v>0.177589852008457</v>
@@ -3217,40 +3176,40 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D7" t="n">
-        <v>29.0</v>
+        <v>141.0</v>
       </c>
       <c r="E7" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0177894166197971</v>
+        <v>1.20716898087554E-34</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.40220830353988E-34</v>
       </c>
       <c r="H7" t="n">
-        <v>3.80945122355267E-7</v>
+        <v>0.00439810392437882</v>
       </c>
       <c r="I7" t="n">
-        <v>60.0</v>
+        <v>99.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -3258,87 +3217,87 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" t="n">
-        <v>65.0</v>
+        <v>26.0</v>
       </c>
       <c r="E8" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.230463819865231</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.50685764247491E-34</v>
       </c>
       <c r="H8" t="n">
-        <v>3.24651120035433E-13</v>
+        <v>1.22924557080361E-4</v>
       </c>
       <c r="I8" t="n">
-        <v>40.0</v>
+        <v>99.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.124947145877378</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00416322917202027</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
-        <v>265.0</v>
+        <v>158.0</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0</v>
+        <v>84.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.2352705485436E-34</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.35901809531459E-34</v>
       </c>
       <c r="H9" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>5.83787118574287E-5</v>
       </c>
       <c r="I9" t="n">
-        <v>40.0</v>
+        <v>99.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.17780126849894293</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0</v>
+        <v>6.685576448558929E-4</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -3346,43 +3305,43 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D10" t="n">
-        <v>120.0</v>
+        <v>103.0</v>
       </c>
       <c r="E10" t="n">
-        <v>82.0</v>
+        <v>15.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.14193063028248E-34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00396825396825397</v>
+        <v>4.84099107273283E-34</v>
       </c>
       <c r="H10" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>0.00398467763664485</v>
       </c>
       <c r="I10" t="n">
-        <v>40.0</v>
+        <v>1.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.173361522198731</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -3390,10 +3349,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
@@ -3405,16 +3364,16 @@
         <v>46.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.22894814189563E-34</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.44329763931428E-34</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00131454955057744</v>
+        <v>5.9054705516599E-4</v>
       </c>
       <c r="I11" t="n">
-        <v>40.0</v>
+        <v>1.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
@@ -3434,43 +3393,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D12" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="E12" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.15751855688404E-34</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00396825396825397</v>
+        <v>5.13633444044432E-34</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00699258708471991</v>
+        <v>0.00221679363656914</v>
       </c>
       <c r="I12" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04059196617336152</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0013371152897117902</v>
+        <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -3478,10 +3437,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>86</v>
@@ -3490,75 +3449,75 @@
         <v>265.0</v>
       </c>
       <c r="E13" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.20785024514573E-34</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.27970144370964E-34</v>
       </c>
       <c r="H13" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>0.00144379662133346</v>
       </c>
       <c r="I13" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N13" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" t="n">
-        <v>103.0</v>
+        <v>46.0</v>
       </c>
       <c r="E14" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.17192315497953E-34</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.35695424691269E-34</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00167276266869532</v>
+        <v>0.00462043917431882</v>
       </c>
       <c r="I14" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -3566,87 +3525,87 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" t="n">
-        <v>250.0</v>
+        <v>48.0</v>
       </c>
       <c r="E15" t="n">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.16980753950271E-34</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00396825396825397</v>
+        <v>5.18891868709783E-32</v>
       </c>
       <c r="H15" t="n">
-        <v>1.07101678627571E-5</v>
+        <v>0.00642721531968004</v>
       </c>
       <c r="I15" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L15" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06553911205074</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N15" t="n">
-        <v>6.5420519111824E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D16" t="n">
-        <v>93.0</v>
+        <v>103.0</v>
       </c>
       <c r="E16" t="n">
-        <v>84.0</v>
+        <v>19.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.200982679178368</v>
+        <v>1.18175642458777E-34</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.31910172907252E-34</v>
       </c>
       <c r="H16" t="n">
-        <v>3.59155834889592E-4</v>
+        <v>2.87748894071806E-4</v>
       </c>
       <c r="I16" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.179492600422833</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004722160836575322</v>
+        <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.177589852008457</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -3654,28 +3613,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D17" t="n">
-        <v>48.0</v>
+        <v>250.0</v>
       </c>
       <c r="E17" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.2214854975644E-34</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0059626167965088</v>
+        <v>9.45491043224714E-34</v>
       </c>
       <c r="H17" t="n">
-        <v>2.75013925583083E-4</v>
+        <v>0.00875366705199949</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -3684,13 +3643,13 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04059196617336152</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0013371152897117902</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M17" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -3698,43 +3657,43 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D18" t="n">
-        <v>250.0</v>
+        <v>34.0</v>
       </c>
       <c r="E18" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0059626167965088</v>
+        <v>6.68835988379306E-10</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.67420369046413E-34</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00580706674183575</v>
+        <v>8.18797892426578E-5</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="L18" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -3742,13 +3701,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D19" t="n">
         <v>266.0</v>
@@ -3757,13 +3716,13 @@
         <v>28.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.21667218042997E-34</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.27984562815263E-34</v>
       </c>
       <c r="H19" t="n">
-        <v>2.7663019432251E-5</v>
+        <v>1.74454012812646E-5</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -3778,21 +3737,21 @@
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0638477801268499</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0147082681868297</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
         <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
       </c>
       <c r="D20" t="n">
         <v>250.0</v>
@@ -3801,13 +3760,13 @@
         <v>34.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.21990193792916E-34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00396825396825397</v>
+        <v>3.15872820267576E-31</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0203099057522167</v>
+        <v>0.0380486317429577</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -3833,10 +3792,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D21" t="n">
         <v>27.0</v>
@@ -3845,13 +3804,13 @@
         <v>15.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.21200184302059E-30</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00396825396825397</v>
+        <v>9.45566349797827E-32</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0356623108130311</v>
+        <v>0.00499481011308575</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -3877,10 +3836,10 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D22" t="n">
         <v>250.0</v>
@@ -3889,13 +3848,13 @@
         <v>15.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.14917939631038E-34</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0059626167965088</v>
+        <v>8.37367308997004E-34</v>
       </c>
       <c r="H22" t="n">
-        <v>3.12027396593513E-4</v>
+        <v>0.0106961395903676</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -3921,10 +3880,10 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D23" t="n">
         <v>93.0</v>
@@ -3933,13 +3892,13 @@
         <v>59.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0059626167965088</v>
+        <v>2.56669768177853E-34</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0059626167965088</v>
+        <v>6.22810203136227E-33</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0204179464513697</v>
+        <v>0.010219817700162</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -3965,10 +3924,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D24" t="n">
         <v>158.0</v>
@@ -3977,13 +3936,13 @@
         <v>59.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.23116780642132E-34</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00396825396825397</v>
+        <v>3.43842467161196E-34</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00334798701112857</v>
+        <v>0.00548554537266833</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -4001,7 +3960,7 @@
         <v>0.124735729386892</v>
       </c>
       <c r="N24" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -4009,10 +3968,10 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D25" t="n">
         <v>64.0</v>
@@ -4021,13 +3980,13 @@
         <v>37.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00396825396825397</v>
+        <v>7.83432948699516E-34</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00396825396825397</v>
+        <v>7.67502774908572E-34</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00333892782400472</v>
+        <v>0.00723407933578799</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -4053,10 +4012,10 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D26" t="n">
         <v>250.0</v>
@@ -4065,13 +4024,13 @@
         <v>37.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.22756283034756E-34</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00793650793650794</v>
+        <v>1.09865154650512E-30</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0641712118646901</v>
+        <v>0.0321461849788848</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -4097,25 +4056,25 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D27" t="n">
-        <v>37.0</v>
+        <v>46.0</v>
       </c>
       <c r="E27" t="n">
         <v>28.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0158730158730159</v>
+        <v>3.25205585187007E-33</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.75066984020806E-32</v>
       </c>
       <c r="H27" t="n">
-        <v>0.015920859802431</v>
+        <v>0.0126685742084983</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -4133,7 +4092,7 @@
         <v>0.0591966173361522</v>
       </c>
       <c r="N27" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -4141,25 +4100,25 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D28" t="n">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
       <c r="E28" t="n">
         <v>28.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0059626167965088</v>
+        <v>6.15975412036137E-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00396825396825397</v>
+        <v>3.09839392327555E-29</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0142728080658903</v>
+        <v>0.0417860943528127</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -4177,7 +4136,7 @@
         <v>0.0591966173361522</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="29">
@@ -4185,25 +4144,25 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D29" t="n">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
       <c r="E29" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0468463097466241</v>
+        <v>1.80123894902044E-15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00396825396825397</v>
+        <v>5.02913344401318E-32</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0417860943528127</v>
+        <v>5.43984140533416E-4</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -4212,13 +4171,13 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -4229,25 +4188,25 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D30" t="n">
-        <v>28.0</v>
+        <v>64.0</v>
       </c>
       <c r="E30" t="n">
         <v>25.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0277777777777778</v>
+        <v>1.16927921684181E-34</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00396825396825397</v>
+        <v>9.44765379625515E-34</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00528885616238524</v>
+        <v>0.00303356901418375</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -4265,33 +4224,33 @@
         <v>0.0528541226215645</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D31" t="n">
-        <v>31.0</v>
+        <v>120.0</v>
       </c>
       <c r="E31" t="n">
         <v>25.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.1818231380091E-34</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0158730158730159</v>
+        <v>3.14898369775345E-30</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00130554100709877</v>
+        <v>0.0309840525412039</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -4317,7 +4276,7 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
         <v>76</v>
@@ -4329,13 +4288,13 @@
         <v>46.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.22231249679506E-34</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.10050760876494E-33</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00153994324064719</v>
+        <v>0.00267754579974763</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -4358,28 +4317,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
       <c r="E33" t="n">
         <v>25.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0172268185197356</v>
+        <v>0.00347441638969293</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0059626167965088</v>
+        <v>7.59560619227989E-25</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00352256830938948</v>
+        <v>0.013847059440947</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -4397,39 +4356,39 @@
         <v>0.0528541226215645</v>
       </c>
       <c r="N33" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D34" t="n">
-        <v>250.0</v>
+        <v>31.0</v>
       </c>
       <c r="E34" t="n">
         <v>25.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00396825396825397</v>
+        <v>4.68106792426314E-11</v>
       </c>
       <c r="G34" t="n">
-        <v>0.00396825396825397</v>
+        <v>3.51366609307787E-30</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00148405904181779</v>
+        <v>0.00436627886971947</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K34" t="n">
         <v>0.052854122621564484</v>
@@ -4446,72 +4405,72 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D35" t="n">
-        <v>93.0</v>
+        <v>250.0</v>
       </c>
       <c r="E35" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.19990282760418E-34</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.51825316129327E-33</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0572545435376393</v>
+        <v>0.00244603283957377</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L35" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N35" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D36" t="n">
-        <v>250.0</v>
+        <v>29.0</v>
       </c>
       <c r="E36" t="n">
-        <v>64.0</v>
+        <v>21.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.29963677676796E-18</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00396825396825397</v>
+        <v>4.6677071804976E-29</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0500405705476867</v>
+        <v>0.0329558875782948</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -4520,42 +4479,42 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.13530655391120508</v>
+        <v>0.04439746300211417</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.135306553911205</v>
+        <v>0.0443974630021142</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D37" t="n">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="E37" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00798534817689006</v>
+        <v>0.403276919271152</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00396825396825397</v>
+        <v>5.12934693136123E-25</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00573068158794917</v>
+        <v>0.0434095862598749</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -4564,42 +4523,42 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0</v>
+        <v>6.542051911182396E-18</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D38" t="n">
-        <v>41.0</v>
+        <v>250.0</v>
       </c>
       <c r="E38" t="n">
-        <v>27.0</v>
+        <v>64.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00793650793650794</v>
+        <v>1.23833888137938E-34</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.08697809290721E-25</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00496140462033587</v>
+        <v>0.0627225375520152</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -4608,42 +4567,42 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.13530655391120508</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.135306553911205</v>
       </c>
       <c r="N38" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D39" t="n">
-        <v>59.0</v>
+        <v>41.0</v>
       </c>
       <c r="E39" t="n">
-        <v>31.0</v>
+        <v>15.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.14976382693386E-34</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00396825396825397</v>
+        <v>4.54421973181054E-6</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00872783618701037</v>
+        <v>0.37925589560784</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -4652,13 +4611,13 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L39" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -4666,28 +4625,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D40" t="n">
-        <v>78.0</v>
+        <v>37.0</v>
       </c>
       <c r="E40" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0059626167965088</v>
+        <v>6.54960402503012E-24</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00396825396825397</v>
+        <v>6.37732532044627E-27</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0865916560787768</v>
+        <v>0.0151343083289218</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -4696,42 +4655,42 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L40" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N40" t="n">
-        <v>6.5420519111824E-18</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D41" t="n">
-        <v>222.0</v>
+        <v>41.0</v>
       </c>
       <c r="E41" t="n">
-        <v>37.0</v>
+        <v>27.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.25502416082116E-30</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.54351413513868E-31</v>
       </c>
       <c r="H41" t="n">
-        <v>0.00201437246540173</v>
+        <v>0.0218323284200946</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -4740,13 +4699,13 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0782241014799154</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -4754,28 +4713,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D42" t="n">
-        <v>46.0</v>
+        <v>59.0</v>
       </c>
       <c r="E42" t="n">
-        <v>23.0</v>
+        <v>31.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.18429411365679E-34</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.02462154049138E-24</v>
       </c>
       <c r="H42" t="n">
-        <v>0.145038385111565</v>
+        <v>0.0653778046739091</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -4784,13 +4743,13 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -4798,28 +4757,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D43" t="n">
-        <v>93.0</v>
+        <v>78.0</v>
       </c>
       <c r="E43" t="n">
-        <v>23.0</v>
+        <v>31.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0059626167965088</v>
+        <v>1.18489592183298E-34</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0158730158730159</v>
+        <v>6.06467770620295E-31</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0914870429913643</v>
+        <v>0.0151411619500439</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -4828,57 +4787,57 @@
         <v>0.0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0</v>
+        <v>6.5420519111824E-18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D44" t="n">
-        <v>265.0</v>
+        <v>222.0</v>
       </c>
       <c r="E44" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.22403716286637E-34</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00396825396825397</v>
+        <v>5.58392767022052E-32</v>
       </c>
       <c r="H44" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>0.0367718902166031</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L44" t="n">
         <v>0.0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0782241014799154</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -4886,28 +4845,28 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D45" t="n">
-        <v>26.0</v>
+        <v>46.0</v>
       </c>
       <c r="E45" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0166693416357932</v>
+        <v>1.30356106857447E-34</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.10181783119718E-27</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0165947985726984</v>
+        <v>0.0615559278427358</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -4916,86 +4875,86 @@
         <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L45" t="n">
         <v>0.0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N45" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D46" t="n">
-        <v>25.0</v>
+        <v>93.0</v>
       </c>
       <c r="E46" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.414406187123225</v>
+        <v>1.20533143525127E-34</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.66100894091331E-20</v>
       </c>
       <c r="H46" t="n">
-        <v>0.00877923124276454</v>
+        <v>0.0608947640117497</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L46" t="n">
         <v>0.0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0551797040169133</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N46" t="n">
-        <v>6.68557644855895E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D47" t="n">
-        <v>250.0</v>
+        <v>26.0</v>
       </c>
       <c r="E47" t="n">
         <v>26.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00557971264145738</v>
+        <v>0.0843843123534145</v>
       </c>
       <c r="G47" t="n">
-        <v>0.00396825396825397</v>
+        <v>8.28510201196554E-29</v>
       </c>
       <c r="H47" t="n">
-        <v>6.16668310928288E-4</v>
+        <v>0.0411367908588224</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
@@ -5018,28 +4977,28 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D48" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="E48" t="n">
-        <v>35.0</v>
+        <v>26.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.299643165183856</v>
+        <v>1.01401153655006E-25</v>
       </c>
       <c r="G48" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.72550704607847E-32</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00968077529339387</v>
+        <v>0.00203460871628718</v>
       </c>
       <c r="I48" t="n">
         <v>0.0</v>
@@ -5048,13 +5007,13 @@
         <v>0.0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.07399577167019028</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L48" t="n">
         <v>0.0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0739957716701903</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N48" t="n">
         <v>0.0</v>
@@ -5062,43 +5021,43 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D49" t="n">
-        <v>93.0</v>
+        <v>250.0</v>
       </c>
       <c r="E49" t="n">
-        <v>48.0</v>
+        <v>26.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0058336561716597</v>
+        <v>1.20274987211075E-34</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.72701342298077E-34</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01807073606392</v>
+        <v>9.10299739159604E-4</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1014799154334038</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.101479915433404</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N49" t="n">
         <v>0.0</v>
@@ -5106,28 +5065,28 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D50" t="n">
-        <v>250.0</v>
+        <v>41.0</v>
       </c>
       <c r="E50" t="n">
-        <v>48.0</v>
+        <v>35.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0059626167965088</v>
+        <v>2.89718131170771E-13</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.39523961514486E-28</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0055462271686999</v>
+        <v>0.00532917435465734</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
@@ -5136,13 +5095,13 @@
         <v>0.0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1014799154334038</v>
+        <v>0.07399577167019028</v>
       </c>
       <c r="L50" t="n">
         <v>0.0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.101479915433404</v>
+        <v>0.0739957716701903</v>
       </c>
       <c r="N50" t="n">
         <v>0.0</v>
@@ -5150,28 +5109,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D51" t="n">
-        <v>250.0</v>
+        <v>93.0</v>
       </c>
       <c r="E51" t="n">
-        <v>103.0</v>
+        <v>48.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.26473732547424E-34</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.8588266883493E-29</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0424915803314463</v>
+        <v>0.0367059590370031</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
@@ -5180,13 +5139,13 @@
         <v>0.0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.21775898520084566</v>
+        <v>0.1014799154334038</v>
       </c>
       <c r="L51" t="n">
         <v>0.0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.217758985200846</v>
+        <v>0.101479915433404</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
@@ -5194,43 +5153,43 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D52" t="n">
-        <v>250.0</v>
+        <v>103.0</v>
       </c>
       <c r="E52" t="n">
-        <v>78.0</v>
+        <v>48.0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.22403716286637E-34</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.33073820932236E-34</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0673405159954021</v>
+        <v>0.00131533878106072</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1649048625792812</v>
+        <v>0.1014799154334038</v>
       </c>
       <c r="L52" t="n">
         <v>0.0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.164904862579281</v>
+        <v>0.101479915433404</v>
       </c>
       <c r="N52" t="n">
         <v>0.0</v>
@@ -5238,28 +5197,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" t="n">
         <v>250.0</v>
       </c>
       <c r="E53" t="n">
-        <v>120.0</v>
+        <v>103.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.24435751455179E-34</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00396825396825397</v>
+        <v>2.18684328280531E-26</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00665908854938229</v>
+        <v>0.0728620325397625</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -5268,13 +5227,13 @@
         <v>0.0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2536997885835095</v>
+        <v>0.21775898520084566</v>
       </c>
       <c r="L53" t="n">
         <v>0.0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.25369978858351</v>
+        <v>0.217758985200846</v>
       </c>
       <c r="N53" t="n">
         <v>0.0</v>
@@ -5282,28 +5241,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D54" t="n">
-        <v>82.0</v>
+        <v>250.0</v>
       </c>
       <c r="E54" t="n">
-        <v>36.0</v>
+        <v>78.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.23687352542874E-34</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00396825396825397</v>
+        <v>1.26969641640727E-27</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0265719303468058</v>
+        <v>0.059238408256816</v>
       </c>
       <c r="I54" t="n">
         <v>0.0</v>
@@ -5312,13 +5271,13 @@
         <v>0.0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.07610993657505286</v>
+        <v>0.1649048625792812</v>
       </c>
       <c r="L54" t="n">
         <v>0.0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0761099365750529</v>
+        <v>0.164904862579281</v>
       </c>
       <c r="N54" t="n">
         <v>0.0</v>
@@ -5326,101 +5285,101 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J55" t="e">
-        <v>#NUM!</v>
+        <v>108</v>
+      </c>
+      <c r="D55" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.25160335975265E-34</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4.01643821011843E-33</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.00719422942487453</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0613107822410148</v>
+        <v>0.2536997885835095</v>
       </c>
       <c r="L55" t="n">
         <v>0.0</v>
       </c>
-      <c r="M55" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N55" t="e">
-        <v>#NUM!</v>
+      <c r="M55" t="n">
+        <v>0.25369978858351</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J56" t="e">
-        <v>#NUM!</v>
+        <v>116</v>
+      </c>
+      <c r="D56" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.18938541639752E-34</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.53741229995149E-24</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0729593268421829</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.06765327695560254</v>
+        <v>0.07610993657505286</v>
       </c>
       <c r="L56" t="n">
         <v>0.0</v>
       </c>
-      <c r="M56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N56" t="e">
-        <v>#NUM!</v>
+      <c r="M56" t="n">
+        <v>0.0761099365750529</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D57" t="e">
         <v>#NUM!</v>
@@ -5444,7 +5403,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.08668076109936575</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L57" t="n">
         <v>0.0</v>
@@ -5458,13 +5417,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -5488,7 +5447,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K58" t="n">
-        <v>0.13742071881606766</v>
+        <v>0.06765327695560254</v>
       </c>
       <c r="L58" t="n">
         <v>0.0</v>
@@ -5502,13 +5461,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D59" t="e">
         <v>#NUM!</v>
@@ -5532,7 +5491,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K59" t="n">
-        <v>0.042283298097251586</v>
+        <v>0.08668076109936575</v>
       </c>
       <c r="L59" t="n">
         <v>0.0</v>
@@ -5546,13 +5505,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -5576,7 +5535,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K60" t="n">
-        <v>0.19661733615221988</v>
+        <v>0.13742071881606766</v>
       </c>
       <c r="L60" t="n">
         <v>0.0</v>
@@ -5593,10 +5552,10 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -5620,7 +5579,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K61" t="n">
-        <v>0.29809725158562367</v>
+        <v>0.042283298097251586</v>
       </c>
       <c r="L61" t="n">
         <v>0.0</v>
@@ -5634,13 +5593,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D62" t="e">
         <v>#NUM!</v>
@@ -5664,7 +5623,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K62" t="n">
-        <v>0.04439746300211417</v>
+        <v>0.19661733615221988</v>
       </c>
       <c r="L62" t="n">
         <v>0.0</v>
@@ -5678,13 +5637,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D63" t="e">
         <v>#NUM!</v>
@@ -5708,7 +5667,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K63" t="n">
-        <v>0.4714587737843552</v>
+        <v>0.29809725158562367</v>
       </c>
       <c r="L63" t="n">
         <v>0.0</v>
@@ -5725,10 +5684,10 @@
         <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="D64" t="e">
         <v>#NUM!</v>
@@ -5752,7 +5711,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K64" t="n">
-        <v>0.35517970401691334</v>
+        <v>0.4714587737843552</v>
       </c>
       <c r="L64" t="n">
         <v>0.0</v>
@@ -5769,10 +5728,10 @@
         <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D65" t="e">
         <v>#NUM!</v>
@@ -5796,7 +5755,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K65" t="n">
-        <v>0.3192389006342495</v>
+        <v>0.35517970401691334</v>
       </c>
       <c r="L65" t="n">
         <v>0.0</v>
@@ -5813,10 +5772,10 @@
         <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D66" t="e">
         <v>#NUM!</v>
@@ -5840,7 +5799,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K66" t="n">
-        <v>0.4397463002114165</v>
+        <v>0.3192389006342495</v>
       </c>
       <c r="L66" t="n">
         <v>0.0</v>
@@ -5857,10 +5816,10 @@
         <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D67" t="e">
         <v>#NUM!</v>
@@ -5884,10 +5843,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K67" t="n">
-        <v>0.49577167019027485</v>
+        <v>0.4397463002114165</v>
       </c>
       <c r="L67" t="n">
-        <v>0.018863648786926254</v>
+        <v>0.0</v>
       </c>
       <c r="M67" t="e">
         <v>#NUM!</v>
@@ -5901,10 +5860,10 @@
         <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D68" t="e">
         <v>#NUM!</v>
@@ -5928,10 +5887,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K68" t="n">
-        <v>0.4143763213530655</v>
+        <v>0.49725158562367866</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0</v>
+        <v>0.02044421633766737</v>
       </c>
       <c r="M68" t="e">
         <v>#NUM!</v>
@@ -5945,10 +5904,10 @@
         <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D69" t="e">
         <v>#NUM!</v>
@@ -5972,7 +5931,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K69" t="n">
-        <v>0.33403805496828753</v>
+        <v>0.4143763213530655</v>
       </c>
       <c r="L69" t="n">
         <v>0.0</v>
@@ -5989,10 +5948,10 @@
         <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D70" t="e">
         <v>#NUM!</v>
@@ -6033,10 +5992,10 @@
         <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D71" t="e">
         <v>#NUM!</v>
@@ -6060,7 +6019,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K71" t="n">
-        <v>0.3192389006342495</v>
+        <v>0.33403805496828753</v>
       </c>
       <c r="L71" t="n">
         <v>0.0</v>
@@ -6077,10 +6036,10 @@
         <v>147</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D72" t="e">
         <v>#NUM!</v>
@@ -6104,7 +6063,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K72" t="n">
-        <v>0.26849894291754756</v>
+        <v>0.3192389006342495</v>
       </c>
       <c r="L72" t="n">
         <v>0.0</v>
@@ -6121,10 +6080,10 @@
         <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D73" t="e">
         <v>#NUM!</v>
@@ -6148,7 +6107,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K73" t="n">
-        <v>0.4376321353065539</v>
+        <v>0.26849894291754756</v>
       </c>
       <c r="L73" t="n">
         <v>0.0</v>
@@ -6165,10 +6124,10 @@
         <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D74" t="e">
         <v>#NUM!</v>
@@ -6192,7 +6151,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K74" t="n">
-        <v>0.3678646934460888</v>
+        <v>0.4376321353065539</v>
       </c>
       <c r="L74" t="n">
         <v>0.0</v>
@@ -6209,10 +6168,10 @@
         <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D75" t="e">
         <v>#NUM!</v>
@@ -6236,7 +6195,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K75" t="n">
-        <v>0.35517970401691334</v>
+        <v>0.3678646934460888</v>
       </c>
       <c r="L75" t="n">
         <v>0.0</v>
@@ -6253,10 +6212,10 @@
         <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D76" t="e">
         <v>#NUM!</v>
@@ -6280,15 +6239,59 @@
         <v>#NUM!</v>
       </c>
       <c r="K76" t="n">
+        <v>0.35517970401691334</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N76" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.4693446088794926</v>
       </c>
-      <c r="L76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M76" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N76" t="e">
+      <c r="L77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N77" t="e">
         <v>#NUM!</v>
       </c>
     </row>
